--- a/etc/UN Growth Rates, 2013 Revisions.xlsx
+++ b/etc/UN Growth Rates, 2013 Revisions.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Graduate School\Research\Population\Analysis\RF\Working RF\etc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15195" windowHeight="8565"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="13470" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="ADJUST 2010" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>Urban annual growth rate (%)</t>
   </si>
@@ -46,9 +51,6 @@
     <t>2015-2020</t>
   </si>
   <si>
-    <t>Urban Growth Rates (target year below)</t>
-  </si>
-  <si>
     <t>Rural Growth Rates (target year below)</t>
   </si>
   <si>
@@ -251,16 +253,95 @@
   </si>
   <si>
     <t>RWA</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>Retrieval</t>
+  </si>
+  <si>
+    <r>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Population Division of the Department of Economic and Social Affairs of the United Nations Secretariat, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>World Population Prospects: The 2010 Revision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>World Urbanization Prospects: The 2011 Revision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> Friday, May 16, 2014; 2:50:12 PM.</t>
+    </r>
+  </si>
+  <si>
+    <t>(must match one of the upper ranges of growth rates)</t>
+  </si>
+  <si>
+    <t>Urban Growth Rates (target year below</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -290,6 +371,27 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -354,7 +456,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +497,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,6 +513,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -453,7 +564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,9 +596,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,6 +631,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,261 +807,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="17" width="10.7109375" style="7"/>
-    <col min="18" max="18" width="12.28515625" style="7" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="7"/>
-    <col min="21" max="22" width="10.7109375" style="8"/>
-    <col min="23" max="24" width="10.7109375" style="19"/>
-    <col min="25" max="26" width="10.7109375" style="8"/>
-    <col min="27" max="16384" width="10.7109375" style="7"/>
+    <col min="1" max="20" width="10.7109375" style="7"/>
+    <col min="21" max="21" width="12.28515625" style="7" customWidth="1"/>
+    <col min="22" max="23" width="10.7109375" style="7"/>
+    <col min="24" max="25" width="10.7109375" style="8"/>
+    <col min="26" max="27" width="10.7109375" style="19"/>
+    <col min="28" max="29" width="10.7109375" style="8"/>
+    <col min="30" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="12" customHeight="1">
+    <row r="1" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2"/>
+        <v>14</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="S1" s="28"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="I1" s="2"/>
+      <c r="V1" s="28"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:42" ht="12" customHeight="1">
+    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
     </row>
-    <row r="3" spans="1:42" ht="12" customHeight="1">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="K3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
       <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
     </row>
-    <row r="4" spans="1:42" ht="12" customHeight="1">
+    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="15">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="15">
         <v>1990</v>
       </c>
-      <c r="D4" s="15">
+      <c r="E4" s="15">
         <v>1995</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F4" s="15">
         <v>2000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G4" s="15">
         <v>2005</v>
       </c>
-      <c r="G4" s="15">
+      <c r="H4" s="15">
         <v>2010</v>
       </c>
-      <c r="H4" s="15">
+      <c r="I4" s="15">
         <v>2015</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>1990</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>1995</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="9">
         <v>2000</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="9">
         <v>2005</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="9">
         <v>2010</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>2015</v>
       </c>
-      <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="11"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
       <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
     </row>
-    <row r="5" spans="1:42" ht="12" customHeight="1">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="15">
         <v>1995</v>
       </c>
-      <c r="D5" s="15">
+      <c r="E5" s="15">
         <v>2000</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="15">
         <v>2005</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <v>2010</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="15">
         <v>2015</v>
       </c>
-      <c r="H5" s="15">
+      <c r="I5" s="15">
         <v>2020</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>1995</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="9">
         <v>2000</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="9">
         <v>2005</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <v>2010</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>2015</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="9">
         <v>2020</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
+        <v>2000</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2005</v>
+      </c>
+      <c r="R5" s="10">
         <v>2010</v>
       </c>
-      <c r="P5" s="10">
+      <c r="S5" s="10">
         <v>2015</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="T5" s="10">
         <v>2020</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="9">
+      <c r="U5" s="11"/>
+      <c r="V5" s="9">
         <v>2000</v>
       </c>
-      <c r="T5" s="9">
+      <c r="W5" s="9">
         <v>2010</v>
       </c>
-      <c r="U5" s="9">
+      <c r="X5" s="9">
         <v>2015</v>
       </c>
-      <c r="V5" s="9">
+      <c r="Y5" s="9">
         <v>2020</v>
       </c>
-      <c r="W5" s="13">
+      <c r="Z5" s="13">
         <v>2000</v>
       </c>
-      <c r="X5" s="13">
+      <c r="AA5" s="13">
         <v>2010</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="AB5" s="13">
         <v>2015</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="AC5" s="13">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="12" customHeight="1">
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -969,15 +1102,15 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
@@ -988,3869 +1121,4446 @@
       <c r="AK6" s="17"/>
       <c r="AL6" s="17"/>
       <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
     </row>
-    <row r="7" spans="1:42" s="28" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>4.33</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="7">
         <v>4.07</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>3.87</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>3.75</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>3.61</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>1.27</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>1.24</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>1.26</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>1.29</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>1.25</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7">
         <v>158423</v>
       </c>
-      <c r="P7" s="7">
+      <c r="S7" s="7">
         <v>179791</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="T7" s="7">
         <v>203869</v>
       </c>
-      <c r="R7" s="7">
+      <c r="U7" s="7">
         <v>2006</v>
       </c>
-      <c r="S7" s="28">
-        <f t="shared" ref="S7:V23" si="0">(EXP(($C7/100)*MIN(($C$5-$C$4),IF($R7&lt;S$5,ABS($C$5-$R7),ABS($R7-$C$4)))))^(IF(AND(S$5&lt;$R7,S$5&lt;$C$5,$R7&gt;$C$4), -1, IF(AND(S$5&gt;$R7,S$5&gt;$C$4,$R7&lt;$C$5),1,0)))*(EXP(($D7/100)*MIN(($D$5-$D$4),IF($R7&lt;S$5,ABS($D$5-$R7),ABS($R7-$D$4)))))^(IF(AND(S$5&lt;$R7,S$5&lt;$D$5,$R7&gt;$D$4), -1, IF(AND(S$5&gt;$R7,S$5&gt;$D$4,$R7&lt;$D$5),1,0)))*(EXP(($E7/100)*MIN(($E$5-$E$4),IF($R7&lt;S$5,ABS($E$5-$R7),ABS($R7-$E$4)))))^(IF(AND(S$5&lt;$R7,S$5&lt;$E$5,$R7&gt;$E$4), -1, IF(AND(S$5&gt;$R7,S$5&gt;$E$4,$R7&lt;$E$5),1,0)))*(EXP(($F7/100)*MIN(($F$5-$F$4),IF($R7&lt;S$5,ABS($F$5-$R7),ABS($R7-$F$4)))))^(IF(AND(S$5&lt;$R7,S$5&lt;$F$5,$R7&gt;$F$4), -1, IF(AND(S$5&gt;$R7,S$5&gt;$F$4,$R7&lt;$F$5),1,0)))*(EXP(($G7/100)*MIN(($G$5-$G$4),IF($R7&lt;S$5,ABS($G$5-$R7),ABS($R7-$G$4)))))^(IF(AND(S$5&lt;$R7,S$5&lt;$G$5,$R7&gt;$G$4), -1, IF(AND(S$5&gt;$R7,S$5&gt;$G$4,$R7&lt;$G$5),1,0)))*(EXP(($H7/100)*MIN(($H$5-$H$4),IF($R7&lt;S$5,ABS($H$5-$R7),ABS($R7-$H$4)))))^(IF(AND(S$5&lt;$R7,S$5&lt;$H$5,$R7&gt;$H$4), -1, IF(AND(S$5&gt;$R7,S$5&gt;$H$4,$R7&lt;$H$5),1,0)))</f>
+      <c r="V7" s="28">
+        <f t="shared" ref="V7:Y30" si="0">(EXP(($D7/100)*MIN(($D$5-$D$4),IF($U7&lt;V$5,ABS($D$5-$U7),ABS($U7-$D$4)))))^(IF(AND(V$5&lt;$U7,V$5&lt;$D$5,$U7&gt;$D$4), -1, IF(AND(V$5&gt;$U7,V$5&gt;$D$4,$U7&lt;$D$5),1,0)))*(EXP(($E7/100)*MIN(($E$5-$E$4),IF($U7&lt;V$5,ABS($E$5-$U7),ABS($U7-$E$4)))))^(IF(AND(V$5&lt;$U7,V$5&lt;$E$5,$U7&gt;$E$4), -1, IF(AND(V$5&gt;$U7,V$5&gt;$E$4,$U7&lt;$E$5),1,0)))*(EXP(($F7/100)*MIN(($F$5-$F$4),IF($U7&lt;V$5,ABS($F$5-$U7),ABS($U7-$F$4)))))^(IF(AND(V$5&lt;$U7,V$5&lt;$F$5,$U7&gt;$F$4), -1, IF(AND(V$5&gt;$U7,V$5&gt;$F$4,$U7&lt;$F$5),1,0)))*(EXP(($G7/100)*MIN(($G$5-$G$4),IF($U7&lt;V$5,ABS($G$5-$U7),ABS($U7-$G$4)))))^(IF(AND(V$5&lt;$U7,V$5&lt;$G$5,$U7&gt;$G$4), -1, IF(AND(V$5&gt;$U7,V$5&gt;$G$4,$U7&lt;$G$5),1,0)))*(EXP(($H7/100)*MIN(($H$5-$H$4),IF($U7&lt;V$5,ABS($H$5-$U7),ABS($U7-$H$4)))))^(IF(AND(V$5&lt;$U7,V$5&lt;$H$5,$U7&gt;$H$4), -1, IF(AND(V$5&gt;$U7,V$5&gt;$H$4,$U7&lt;$H$5),1,0)))*(EXP(($I7/100)*MIN(($I$5-$I$4),IF($U7&lt;V$5,ABS($I$5-$U7),ABS($U7-$I$4)))))^(IF(AND(V$5&lt;$U7,V$5&lt;$I$5,$U7&gt;$I$4), -1, IF(AND(V$5&gt;$U7,V$5&gt;$I$4,$U7&lt;$I$5),1,0)))</f>
         <v>0.78765114227461297</v>
       </c>
-      <c r="T7" s="28">
+      <c r="W7" s="28">
         <f t="shared" si="0"/>
         <v>1.1674244528645066</v>
       </c>
-      <c r="U7" s="28">
+      <c r="X7" s="28">
         <f t="shared" si="0"/>
         <v>1.4081826889589057</v>
       </c>
-      <c r="V7" s="28">
+      <c r="Y7" s="28">
         <f t="shared" si="0"/>
         <v>1.6867439268247189</v>
       </c>
-      <c r="W7" s="28">
-        <f>(EXP(($I7/100)*MIN(($I$5-$I$4),IF($R7&lt;W$5,ABS($I$5-$R7),ABS($R7-$I$4)))))^(IF(AND(W$5&lt;$R7,W$5&lt;$I$5,$R7&gt;$I$4), -1, IF(AND(W$5&gt;$R7,W$5&gt;$I$4,$R7&lt;$I$5),1,0)))*(EXP(($J7/100)*MIN(($J$5-$J$4),IF($R7&lt;W$5,ABS($J$5-$R7),ABS($R7-$J$4)))))^(IF(AND(W$5&lt;$R7,W$5&lt;$J$5,$R7&gt;$J$4), -1, IF(AND(W$5&gt;$R7,W$5&gt;$J$4,$R7&lt;$J$5),1,0)))*(EXP(($K7/100)*MIN(($K$5-$K$4),IF($R7&lt;W$5,ABS($K$5-$R7),ABS($R7-$K$4)))))^(IF(AND(W$5&lt;$R7,W$5&lt;$K$5,$R7&gt;$K$4), -1, IF(AND(W$5&gt;$R7,W$5&gt;$K$4,$R7&lt;$K$5),1,0)))*(EXP(($L7/100)*MIN(($L$5-$L$4),IF($R7&lt;W$5,ABS($L$5-$R7),ABS($R7-$L$4)))))^(IF(AND(W$5&lt;$R7,W$5&lt;$L$5,$R7&gt;$L$4), -1, IF(AND(W$5&gt;$R7,W$5&gt;$L$4,$R7&lt;$L$5),1,0)))*(EXP(($M7/100)*MIN(($M$5-$M$4),IF($R7&lt;W$5,ABS($M$5-$R7),ABS($R7-$M$4)))))^(IF(AND(W$5&lt;$R7,W$5&lt;$M$5,$R7&gt;$M$4), -1, IF(AND(W$5&gt;$R7,W$5&gt;$M$4,$R7&lt;$M$5),1,0)))*(EXP(($N7/100)*MIN(($N$5-$N$4),IF($R7&lt;W$5,ABS($N$5-$R7),ABS($R7-$N$4)))))^(IF(AND(W$5&lt;$R7,W$5&lt;$N$5,$R7&gt;$N$4), -1, IF(AND(W$5&gt;$R7,W$5&gt;$N$4,$R7&lt;$N$5),1,0)))</f>
+      <c r="Z7" s="28">
+        <f>(EXP(($J7/100)*MIN(($J$5-$J$4),IF($U7&lt;Z$5,ABS($J$5-$U7),ABS($U7-$J$4)))))^(IF(AND(Z$5&lt;$U7,Z$5&lt;$J$5,$U7&gt;$J$4), -1, IF(AND(Z$5&gt;$U7,Z$5&gt;$J$4,$U7&lt;$J$5),1,0)))*(EXP(($K7/100)*MIN(($K$5-$K$4),IF($U7&lt;Z$5,ABS($K$5-$U7),ABS($U7-$K$4)))))^(IF(AND(Z$5&lt;$U7,Z$5&lt;$K$5,$U7&gt;$K$4), -1, IF(AND(Z$5&gt;$U7,Z$5&gt;$K$4,$U7&lt;$K$5),1,0)))*(EXP(($L7/100)*MIN(($L$5-$L$4),IF($U7&lt;Z$5,ABS($L$5-$U7),ABS($U7-$L$4)))))^(IF(AND(Z$5&lt;$U7,Z$5&lt;$L$5,$U7&gt;$L$4), -1, IF(AND(Z$5&gt;$U7,Z$5&gt;$L$4,$U7&lt;$L$5),1,0)))*(EXP(($M7/100)*MIN(($M$5-$M$4),IF($U7&lt;Z$5,ABS($M$5-$U7),ABS($U7-$M$4)))))^(IF(AND(Z$5&lt;$U7,Z$5&lt;$M$5,$U7&gt;$M$4), -1, IF(AND(Z$5&gt;$U7,Z$5&gt;$M$4,$U7&lt;$M$5),1,0)))*(EXP(($N7/100)*MIN(($N$5-$N$4),IF($U7&lt;Z$5,ABS($N$5-$U7),ABS($U7-$N$4)))))^(IF(AND(Z$5&lt;$U7,Z$5&lt;$N$5,$U7&gt;$N$4), -1, IF(AND(Z$5&gt;$U7,Z$5&gt;$N$4,$U7&lt;$N$5),1,0)))*(EXP(($O7/100)*MIN(($O$5-$O$4),IF($U7&lt;Z$5,ABS($O$5-$U7),ABS($U7-$O$4)))))^(IF(AND(Z$5&lt;$U7,Z$5&lt;$O$5,$U7&gt;$O$4), -1, IF(AND(Z$5&gt;$U7,Z$5&gt;$O$4,$U7&lt;$O$5),1,0)))</f>
         <v>0.92811465795246006</v>
       </c>
-      <c r="X7" s="28">
-        <f t="shared" ref="X7:Z23" si="1">(EXP(($I7/100)*MIN(($I$5-$I$4),IF($R7&lt;X$5,ABS($I$5-$R7),ABS($R7-$I$4)))))^(IF(AND(X$5&lt;$R7,X$5&lt;$I$5,$R7&gt;$I$4), -1, IF(AND(X$5&gt;$R7,X$5&gt;$I$4,$R7&lt;$I$5),1,0)))*(EXP(($J7/100)*MIN(($J$5-$J$4),IF($R7&lt;X$5,ABS($J$5-$R7),ABS($R7-$J$4)))))^(IF(AND(X$5&lt;$R7,X$5&lt;$J$5,$R7&gt;$J$4), -1, IF(AND(X$5&gt;$R7,X$5&gt;$J$4,$R7&lt;$J$5),1,0)))*(EXP(($K7/100)*MIN(($K$5-$K$4),IF($R7&lt;X$5,ABS($K$5-$R7),ABS($R7-$K$4)))))^(IF(AND(X$5&lt;$R7,X$5&lt;$K$5,$R7&gt;$K$4), -1, IF(AND(X$5&gt;$R7,X$5&gt;$K$4,$R7&lt;$K$5),1,0)))*(EXP(($L7/100)*MIN(($L$5-$L$4),IF($R7&lt;X$5,ABS($L$5-$R7),ABS($R7-$L$4)))))^(IF(AND(X$5&lt;$R7,X$5&lt;$L$5,$R7&gt;$L$4), -1, IF(AND(X$5&gt;$R7,X$5&gt;$L$4,$R7&lt;$L$5),1,0)))*(EXP(($M7/100)*MIN(($M$5-$M$4),IF($R7&lt;X$5,ABS($M$5-$R7),ABS($R7-$M$4)))))^(IF(AND(X$5&lt;$R7,X$5&lt;$M$5,$R7&gt;$M$4), -1, IF(AND(X$5&gt;$R7,X$5&gt;$M$4,$R7&lt;$M$5),1,0)))*(EXP(($N7/100)*MIN(($N$5-$N$4),IF($R7&lt;X$5,ABS($N$5-$R7),ABS($R7-$N$4)))))^(IF(AND(X$5&lt;$R7,X$5&lt;$N$5,$R7&gt;$N$4), -1, IF(AND(X$5&gt;$R7,X$5&gt;$N$4,$R7&lt;$N$5),1,0)))</f>
+      <c r="AA7" s="28">
+        <f t="shared" ref="AA7:AC30" si="1">(EXP(($J7/100)*MIN(($J$5-$J$4),IF($U7&lt;AA$5,ABS($J$5-$U7),ABS($U7-$J$4)))))^(IF(AND(AA$5&lt;$U7,AA$5&lt;$J$5,$U7&gt;$J$4), -1, IF(AND(AA$5&gt;$U7,AA$5&gt;$J$4,$U7&lt;$J$5),1,0)))*(EXP(($K7/100)*MIN(($K$5-$K$4),IF($U7&lt;AA$5,ABS($K$5-$U7),ABS($U7-$K$4)))))^(IF(AND(AA$5&lt;$U7,AA$5&lt;$K$5,$U7&gt;$K$4), -1, IF(AND(AA$5&gt;$U7,AA$5&gt;$K$4,$U7&lt;$K$5),1,0)))*(EXP(($L7/100)*MIN(($L$5-$L$4),IF($U7&lt;AA$5,ABS($L$5-$U7),ABS($U7-$L$4)))))^(IF(AND(AA$5&lt;$U7,AA$5&lt;$L$5,$U7&gt;$L$4), -1, IF(AND(AA$5&gt;$U7,AA$5&gt;$L$4,$U7&lt;$L$5),1,0)))*(EXP(($M7/100)*MIN(($M$5-$M$4),IF($U7&lt;AA$5,ABS($M$5-$U7),ABS($U7-$M$4)))))^(IF(AND(AA$5&lt;$U7,AA$5&lt;$M$5,$U7&gt;$M$4), -1, IF(AND(AA$5&gt;$U7,AA$5&gt;$M$4,$U7&lt;$M$5),1,0)))*(EXP(($N7/100)*MIN(($N$5-$N$4),IF($U7&lt;AA$5,ABS($N$5-$U7),ABS($U7-$N$4)))))^(IF(AND(AA$5&lt;$U7,AA$5&lt;$N$5,$U7&gt;$N$4), -1, IF(AND(AA$5&gt;$U7,AA$5&gt;$N$4,$U7&lt;$N$5),1,0)))*(EXP(($O7/100)*MIN(($O$5-$O$4),IF($U7&lt;AA$5,ABS($O$5-$U7),ABS($U7-$O$4)))))^(IF(AND(AA$5&lt;$U7,AA$5&lt;$O$5,$U7&gt;$O$4), -1, IF(AND(AA$5&gt;$U7,AA$5&gt;$O$4,$U7&lt;$O$5),1,0)))</f>
         <v>1.0516916889274768</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="AB7" s="28">
         <f t="shared" si="1"/>
         <v>1.1217612558373615</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="AC7" s="28">
         <f t="shared" si="1"/>
         <v>1.1941086410676105</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AD7" s="7"/>
     </row>
-    <row r="8" spans="1:42" s="28" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>3.64</v>
+      </c>
+      <c r="E8" s="7">
+        <v>17.63</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7.39</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J8" s="7">
+        <v>-5.5</v>
+      </c>
+      <c r="K8" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.66</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2.54</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7">
+        <v>8626</v>
+      </c>
+      <c r="S8" s="7">
+        <v>9793</v>
+      </c>
+      <c r="T8" s="7">
+        <v>10923</v>
+      </c>
+      <c r="U8" s="7">
+        <v>2002</v>
+      </c>
+      <c r="V8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.86260361841480615</v>
+      </c>
+      <c r="W8" s="28">
+        <f t="shared" si="0"/>
+        <v>1.5452720824644497</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" si="0"/>
+        <v>1.9351793315673382</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" si="0"/>
+        <v>2.4113819345797016</v>
+      </c>
+      <c r="Z8" s="28">
+        <f>(EXP(($J8/100)*MIN(($J$5-$J$4),IF($U8&lt;Z$5,ABS($J$5-$U8),ABS($U8-$J$4)))))^(IF(AND(Z$5&lt;$U8,Z$5&lt;$J$5,$U8&gt;$J$4), -1, IF(AND(Z$5&gt;$U8,Z$5&gt;$J$4,$U8&lt;$J$5),1,0)))*(EXP(($K8/100)*MIN(($K$5-$K$4),IF($U8&lt;Z$5,ABS($K$5-$U8),ABS($U8-$K$4)))))^(IF(AND(Z$5&lt;$U8,Z$5&lt;$K$5,$U8&gt;$K$4), -1, IF(AND(Z$5&gt;$U8,Z$5&gt;$K$4,$U8&lt;$K$5),1,0)))*(EXP(($L8/100)*MIN(($L$5-$L$4),IF($U8&lt;Z$5,ABS($L$5-$U8),ABS($U8-$L$4)))))^(IF(AND(Z$5&lt;$U8,Z$5&lt;$L$5,$U8&gt;$L$4), -1, IF(AND(Z$5&gt;$U8,Z$5&gt;$L$4,$U8&lt;$L$5),1,0)))*(EXP(($M8/100)*MIN(($M$5-$M$4),IF($U8&lt;Z$5,ABS($M$5-$U8),ABS($U8-$M$4)))))^(IF(AND(Z$5&lt;$U8,Z$5&lt;$M$5,$U8&gt;$M$4), -1, IF(AND(Z$5&gt;$U8,Z$5&gt;$M$4,$U8&lt;$M$5),1,0)))*(EXP(($N8/100)*MIN(($N$5-$N$4),IF($U8&lt;Z$5,ABS($N$5-$U8),ABS($U8-$N$4)))))^(IF(AND(Z$5&lt;$U8,Z$5&lt;$N$5,$U8&gt;$N$4), -1, IF(AND(Z$5&gt;$U8,Z$5&gt;$N$4,$U8&lt;$N$5),1,0)))*(EXP(($O8/100)*MIN(($O$5-$O$4),IF($U8&lt;Z$5,ABS($O$5-$U8),ABS($U8-$O$4)))))^(IF(AND(Z$5&lt;$U8,Z$5&lt;$O$5,$U8&gt;$O$4), -1, IF(AND(Z$5&gt;$U8,Z$5&gt;$O$4,$U8&lt;$O$5),1,0)))</f>
+        <v>0.9673450712265953</v>
+      </c>
+      <c r="AA8" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1945863800654672</v>
+      </c>
+      <c r="AB8" s="28">
+        <f t="shared" si="1"/>
+        <v>1.3563537051363141</v>
+      </c>
+      <c r="AC8" s="28">
+        <f t="shared" si="1"/>
+        <v>1.5125545857141431</v>
+      </c>
+      <c r="AD8" s="7"/>
+    </row>
+    <row r="9" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="AD9" s="7"/>
+    </row>
+    <row r="10" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="7">
+      <c r="B10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3.83</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3.28</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2.72</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.23</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="J10" s="7">
+        <v>-0.79</v>
+      </c>
+      <c r="K10" s="7">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="L10" s="7">
+        <v>-1.3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>-1.19</v>
+      </c>
+      <c r="N10" s="7">
+        <v>-0.99</v>
+      </c>
+      <c r="O10" s="7">
+        <v>-0.7</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7">
+        <v>3517</v>
+      </c>
+      <c r="S10" s="7">
+        <v>3783</v>
+      </c>
+      <c r="T10" s="7">
+        <v>4038</v>
+      </c>
+      <c r="U10" s="7">
+        <v>2010</v>
+      </c>
+      <c r="V10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.74081822068171777</v>
+      </c>
+      <c r="W10" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1179537440055307</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" si="0"/>
+        <v>1.2262981534562105</v>
+      </c>
+      <c r="Z10" s="28">
+        <f>(EXP(($J10/100)*MIN(($J$5-$J$4),IF($U10&lt;Z$5,ABS($J$5-$U10),ABS($U10-$J$4)))))^(IF(AND(Z$5&lt;$U10,Z$5&lt;$J$5,$U10&gt;$J$4), -1, IF(AND(Z$5&gt;$U10,Z$5&gt;$J$4,$U10&lt;$J$5),1,0)))*(EXP(($K10/100)*MIN(($K$5-$K$4),IF($U10&lt;Z$5,ABS($K$5-$U10),ABS($U10-$K$4)))))^(IF(AND(Z$5&lt;$U10,Z$5&lt;$K$5,$U10&gt;$K$4), -1, IF(AND(Z$5&gt;$U10,Z$5&gt;$K$4,$U10&lt;$K$5),1,0)))*(EXP(($L10/100)*MIN(($L$5-$L$4),IF($U10&lt;Z$5,ABS($L$5-$U10),ABS($U10-$L$4)))))^(IF(AND(Z$5&lt;$U10,Z$5&lt;$L$5,$U10&gt;$L$4), -1, IF(AND(Z$5&gt;$U10,Z$5&gt;$L$4,$U10&lt;$L$5),1,0)))*(EXP(($M10/100)*MIN(($M$5-$M$4),IF($U10&lt;Z$5,ABS($M$5-$U10),ABS($U10-$M$4)))))^(IF(AND(Z$5&lt;$U10,Z$5&lt;$M$5,$U10&gt;$M$4), -1, IF(AND(Z$5&gt;$U10,Z$5&gt;$M$4,$U10&lt;$M$5),1,0)))*(EXP(($N10/100)*MIN(($N$5-$N$4),IF($U10&lt;Z$5,ABS($N$5-$U10),ABS($U10-$N$4)))))^(IF(AND(Z$5&lt;$U10,Z$5&lt;$N$5,$U10&gt;$N$4), -1, IF(AND(Z$5&gt;$U10,Z$5&gt;$N$4,$U10&lt;$N$5),1,0)))*(EXP(($O10/100)*MIN(($O$5-$O$4),IF($U10&lt;Z$5,ABS($O$5-$U10),ABS($U10-$O$4)))))^(IF(AND(Z$5&lt;$U10,Z$5&lt;$O$5,$U10&gt;$O$4), -1, IF(AND(Z$5&gt;$U10,Z$5&gt;$O$4,$U10&lt;$O$5),1,0)))</f>
+        <v>1.1325820204602453</v>
+      </c>
+      <c r="AA10" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.95170515813646217</v>
+      </c>
+      <c r="AC10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.91897165537683168</v>
+      </c>
+      <c r="AD10" s="7"/>
+    </row>
+    <row r="11" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>2.81</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.94</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7">
+        <v>5788</v>
+      </c>
+      <c r="S11" s="7">
+        <v>6213</v>
+      </c>
+      <c r="T11" s="7">
+        <v>6603</v>
+      </c>
+      <c r="U11" s="7">
+        <v>2012</v>
+      </c>
+      <c r="V11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.8062995140360093</v>
+      </c>
+      <c r="W11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.96194307852449246</v>
+      </c>
+      <c r="X11" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0599269599051426</v>
+      </c>
+      <c r="Y11" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1591650946669281</v>
+      </c>
+      <c r="Z11" s="28">
+        <f>(EXP(($J11/100)*MIN(($J$5-$J$4),IF($U11&lt;Z$5,ABS($J$5-$U11),ABS($U11-$J$4)))))^(IF(AND(Z$5&lt;$U11,Z$5&lt;$J$5,$U11&gt;$J$4), -1, IF(AND(Z$5&gt;$U11,Z$5&gt;$J$4,$U11&lt;$J$5),1,0)))*(EXP(($K11/100)*MIN(($K$5-$K$4),IF($U11&lt;Z$5,ABS($K$5-$U11),ABS($U11-$K$4)))))^(IF(AND(Z$5&lt;$U11,Z$5&lt;$K$5,$U11&gt;$K$4), -1, IF(AND(Z$5&gt;$U11,Z$5&gt;$K$4,$U11&lt;$K$5),1,0)))*(EXP(($L11/100)*MIN(($L$5-$L$4),IF($U11&lt;Z$5,ABS($L$5-$U11),ABS($U11-$L$4)))))^(IF(AND(Z$5&lt;$U11,Z$5&lt;$L$5,$U11&gt;$L$4), -1, IF(AND(Z$5&gt;$U11,Z$5&gt;$L$4,$U11&lt;$L$5),1,0)))*(EXP(($M11/100)*MIN(($M$5-$M$4),IF($U11&lt;Z$5,ABS($M$5-$U11),ABS($U11-$M$4)))))^(IF(AND(Z$5&lt;$U11,Z$5&lt;$M$5,$U11&gt;$M$4), -1, IF(AND(Z$5&gt;$U11,Z$5&gt;$M$4,$U11&lt;$M$5),1,0)))*(EXP(($N11/100)*MIN(($N$5-$N$4),IF($U11&lt;Z$5,ABS($N$5-$U11),ABS($U11-$N$4)))))^(IF(AND(Z$5&lt;$U11,Z$5&lt;$N$5,$U11&gt;$N$4), -1, IF(AND(Z$5&gt;$U11,Z$5&gt;$N$4,$U11&lt;$N$5),1,0)))*(EXP(($O11/100)*MIN(($O$5-$O$4),IF($U11&lt;Z$5,ABS($O$5-$U11),ABS($U11-$O$4)))))^(IF(AND(Z$5&lt;$U11,Z$5&lt;$O$5,$U11&gt;$O$4), -1, IF(AND(Z$5&gt;$U11,Z$5&gt;$O$4,$U11&lt;$O$5),1,0)))</f>
+        <v>0.91548618966542739</v>
+      </c>
+      <c r="AA11" s="28">
+        <f t="shared" si="1"/>
+        <v>0.98629478349498012</v>
+      </c>
+      <c r="AB11" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0209157309724346</v>
+      </c>
+      <c r="AC11" s="28">
+        <f t="shared" si="1"/>
+        <v>1.039978458543684</v>
+      </c>
+      <c r="AD11" s="7"/>
+    </row>
+    <row r="12" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3.57</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.78</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2.35</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="O12" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7">
+        <v>4659</v>
+      </c>
+      <c r="S12" s="7">
+        <v>4988</v>
+      </c>
+      <c r="T12" s="7">
+        <v>5272</v>
+      </c>
+      <c r="U12" s="7">
+        <v>2011</v>
+      </c>
+      <c r="V12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.75797869545094343</v>
+      </c>
+      <c r="W12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.97961073050325054</v>
+      </c>
+      <c r="X12" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0858900790015251</v>
+      </c>
+      <c r="Y12" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1840017328304804</v>
+      </c>
+      <c r="Z12" s="28">
+        <f>(EXP(($J12/100)*MIN(($J$5-$J$4),IF($U12&lt;Z$5,ABS($J$5-$U12),ABS($U12-$J$4)))))^(IF(AND(Z$5&lt;$U12,Z$5&lt;$J$5,$U12&gt;$J$4), -1, IF(AND(Z$5&gt;$U12,Z$5&gt;$J$4,$U12&lt;$J$5),1,0)))*(EXP(($K12/100)*MIN(($K$5-$K$4),IF($U12&lt;Z$5,ABS($K$5-$U12),ABS($U12-$K$4)))))^(IF(AND(Z$5&lt;$U12,Z$5&lt;$K$5,$U12&gt;$K$4), -1, IF(AND(Z$5&gt;$U12,Z$5&gt;$K$4,$U12&lt;$K$5),1,0)))*(EXP(($L12/100)*MIN(($L$5-$L$4),IF($U12&lt;Z$5,ABS($L$5-$U12),ABS($U12-$L$4)))))^(IF(AND(Z$5&lt;$U12,Z$5&lt;$L$5,$U12&gt;$L$4), -1, IF(AND(Z$5&gt;$U12,Z$5&gt;$L$4,$U12&lt;$L$5),1,0)))*(EXP(($M12/100)*MIN(($M$5-$M$4),IF($U12&lt;Z$5,ABS($M$5-$U12),ABS($U12-$M$4)))))^(IF(AND(Z$5&lt;$U12,Z$5&lt;$M$5,$U12&gt;$M$4), -1, IF(AND(Z$5&gt;$U12,Z$5&gt;$M$4,$U12&lt;$M$5),1,0)))*(EXP(($N12/100)*MIN(($N$5-$N$4),IF($U12&lt;Z$5,ABS($N$5-$U12),ABS($U12-$N$4)))))^(IF(AND(Z$5&lt;$U12,Z$5&lt;$N$5,$U12&gt;$N$4), -1, IF(AND(Z$5&gt;$U12,Z$5&gt;$N$4,$U12&lt;$N$5),1,0)))*(EXP(($O12/100)*MIN(($O$5-$O$4),IF($U12&lt;Z$5,ABS($O$5-$U12),ABS($U12-$O$4)))))^(IF(AND(Z$5&lt;$U12,Z$5&lt;$O$5,$U12&gt;$O$4), -1, IF(AND(Z$5&gt;$U12,Z$5&gt;$O$4,$U12&lt;$O$5),1,0)))</f>
+        <v>0.9618468890261952</v>
+      </c>
+      <c r="AA12" s="28">
+        <f t="shared" si="1"/>
+        <v>0.99960007998933431</v>
+      </c>
+      <c r="AB12" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0016012806829397</v>
+      </c>
+      <c r="AC12" s="28">
+        <f t="shared" si="1"/>
+        <v>0.99262731258742598</v>
+      </c>
+      <c r="AD12" s="7"/>
+    </row>
+    <row r="13" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="AD13" s="7"/>
+    </row>
+    <row r="14" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="30">
+        <v>3.78</v>
+      </c>
+      <c r="E14" s="30">
+        <v>3.12</v>
+      </c>
+      <c r="F14" s="30">
+        <v>3.34</v>
+      </c>
+      <c r="G14" s="30">
+        <v>3.26</v>
+      </c>
+      <c r="H14" s="30">
+        <v>3.03</v>
+      </c>
+      <c r="I14" s="30">
+        <v>2.68</v>
+      </c>
+      <c r="J14" s="30">
+        <v>1.47</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0.67</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="N14" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O14" s="30">
+        <v>-0.17</v>
+      </c>
+      <c r="P14" s="30">
+        <v>78758</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>83161</v>
+      </c>
+      <c r="R14" s="30">
+        <v>87848</v>
+      </c>
+      <c r="S14" s="30">
+        <v>92443</v>
+      </c>
+      <c r="T14" s="30">
+        <v>96355</v>
+      </c>
+      <c r="U14" s="30">
+        <v>1999</v>
+      </c>
+      <c r="V14" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0316918216183855</v>
+      </c>
+      <c r="W14" s="28">
+        <f t="shared" si="0"/>
+        <v>1.4350504422679138</v>
+      </c>
+      <c r="X14" s="28">
+        <f t="shared" si="0"/>
+        <v>1.6697935566253228</v>
+      </c>
+      <c r="Y14" s="28">
+        <f t="shared" si="0"/>
+        <v>1.9092299629342915</v>
+      </c>
+      <c r="Z14" s="28">
+        <f t="shared" ref="Z14:AC44" si="2">(EXP(($J14/100)*MIN(($J$5-$J$4),IF($U14&lt;Z$5,ABS($J$5-$U14),ABS($U14-$J$4)))))^(IF(AND(Z$5&lt;$U14,Z$5&lt;$J$5,$U14&gt;$J$4), -1, IF(AND(Z$5&gt;$U14,Z$5&gt;$J$4,$U14&lt;$J$5),1,0)))*(EXP(($K14/100)*MIN(($K$5-$K$4),IF($U14&lt;Z$5,ABS($K$5-$U14),ABS($U14-$K$4)))))^(IF(AND(Z$5&lt;$U14,Z$5&lt;$K$5,$U14&gt;$K$4), -1, IF(AND(Z$5&gt;$U14,Z$5&gt;$K$4,$U14&lt;$K$5),1,0)))*(EXP(($L14/100)*MIN(($L$5-$L$4),IF($U14&lt;Z$5,ABS($L$5-$U14),ABS($U14-$L$4)))))^(IF(AND(Z$5&lt;$U14,Z$5&lt;$L$5,$U14&gt;$L$4), -1, IF(AND(Z$5&gt;$U14,Z$5&gt;$L$4,$U14&lt;$L$5),1,0)))*(EXP(($M14/100)*MIN(($M$5-$M$4),IF($U14&lt;Z$5,ABS($M$5-$U14),ABS($U14-$M$4)))))^(IF(AND(Z$5&lt;$U14,Z$5&lt;$M$5,$U14&gt;$M$4), -1, IF(AND(Z$5&gt;$U14,Z$5&gt;$M$4,$U14&lt;$M$5),1,0)))*(EXP(($N14/100)*MIN(($N$5-$N$4),IF($U14&lt;Z$5,ABS($N$5-$U14),ABS($U14-$N$4)))))^(IF(AND(Z$5&lt;$U14,Z$5&lt;$N$5,$U14&gt;$N$4), -1, IF(AND(Z$5&gt;$U14,Z$5&gt;$N$4,$U14&lt;$N$5),1,0)))*(EXP(($O14/100)*MIN(($O$5-$O$4),IF($U14&lt;Z$5,ABS($O$5-$U14),ABS($U14-$O$4)))))^(IF(AND(Z$5&lt;$U14,Z$5&lt;$O$5,$U14&gt;$O$4), -1, IF(AND(Z$5&gt;$U14,Z$5&gt;$O$4,$U14&lt;$O$5),1,0)))</f>
+        <v>1.0067224952112424</v>
+      </c>
+      <c r="AA14" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0332405205846567</v>
+      </c>
+      <c r="AB14" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0368631983947212</v>
+      </c>
+      <c r="AC14" s="28">
+        <f t="shared" si="1"/>
+        <v>1.028087211989277</v>
+      </c>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="33"/>
+      <c r="AS14" s="33"/>
+    </row>
+    <row r="15" spans="1:45" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+    </row>
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="V17" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W17" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI17" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN17" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS17" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5">
+        <v>4.01</v>
+      </c>
+      <c r="E18" s="5">
         <v>3.64</v>
       </c>
-      <c r="D8" s="7">
-        <v>17.63</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7.39</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I8" s="7">
-        <v>-5.5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>6.25</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1.66</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2.56</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2.54</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="O8" s="7">
-        <v>8626</v>
-      </c>
-      <c r="P8" s="7">
-        <v>9793</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>10923</v>
-      </c>
-      <c r="R8" s="7">
-        <v>2002</v>
-      </c>
-      <c r="S8" s="28">
-        <f t="shared" si="0"/>
-        <v>0.86260361841480615</v>
-      </c>
-      <c r="T8" s="28">
-        <f t="shared" si="0"/>
-        <v>1.5452720824644497</v>
-      </c>
-      <c r="U8" s="28">
-        <f t="shared" si="0"/>
-        <v>1.9351793315673382</v>
-      </c>
-      <c r="V8" s="28">
-        <f t="shared" si="0"/>
-        <v>2.4113819345797016</v>
-      </c>
-      <c r="W8" s="28">
-        <f>(EXP(($I8/100)*MIN(($I$5-$I$4),IF($R8&lt;W$5,ABS($I$5-$R8),ABS($R8-$I$4)))))^(IF(AND(W$5&lt;$R8,W$5&lt;$I$5,$R8&gt;$I$4), -1, IF(AND(W$5&gt;$R8,W$5&gt;$I$4,$R8&lt;$I$5),1,0)))*(EXP(($J8/100)*MIN(($J$5-$J$4),IF($R8&lt;W$5,ABS($J$5-$R8),ABS($R8-$J$4)))))^(IF(AND(W$5&lt;$R8,W$5&lt;$J$5,$R8&gt;$J$4), -1, IF(AND(W$5&gt;$R8,W$5&gt;$J$4,$R8&lt;$J$5),1,0)))*(EXP(($K8/100)*MIN(($K$5-$K$4),IF($R8&lt;W$5,ABS($K$5-$R8),ABS($R8-$K$4)))))^(IF(AND(W$5&lt;$R8,W$5&lt;$K$5,$R8&gt;$K$4), -1, IF(AND(W$5&gt;$R8,W$5&gt;$K$4,$R8&lt;$K$5),1,0)))*(EXP(($L8/100)*MIN(($L$5-$L$4),IF($R8&lt;W$5,ABS($L$5-$R8),ABS($R8-$L$4)))))^(IF(AND(W$5&lt;$R8,W$5&lt;$L$5,$R8&gt;$L$4), -1, IF(AND(W$5&gt;$R8,W$5&gt;$L$4,$R8&lt;$L$5),1,0)))*(EXP(($M8/100)*MIN(($M$5-$M$4),IF($R8&lt;W$5,ABS($M$5-$R8),ABS($R8-$M$4)))))^(IF(AND(W$5&lt;$R8,W$5&lt;$M$5,$R8&gt;$M$4), -1, IF(AND(W$5&gt;$R8,W$5&gt;$M$4,$R8&lt;$M$5),1,0)))*(EXP(($N8/100)*MIN(($N$5-$N$4),IF($R8&lt;W$5,ABS($N$5-$R8),ABS($R8-$N$4)))))^(IF(AND(W$5&lt;$R8,W$5&lt;$N$5,$R8&gt;$N$4), -1, IF(AND(W$5&gt;$R8,W$5&gt;$N$4,$R8&lt;$N$5),1,0)))</f>
-        <v>0.9673450712265953</v>
-      </c>
-      <c r="X8" s="28">
-        <f t="shared" si="1"/>
-        <v>1.1945863800654672</v>
-      </c>
-      <c r="Y8" s="28">
-        <f t="shared" si="1"/>
-        <v>1.3563537051363141</v>
-      </c>
-      <c r="Z8" s="28">
-        <f t="shared" si="1"/>
-        <v>1.5125545857141431</v>
-      </c>
-      <c r="AA8" s="7"/>
+      <c r="F18" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2.81</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="22">
+        <v>148692</v>
+      </c>
+      <c r="S18" s="22">
+        <v>158317</v>
+      </c>
+      <c r="T18" s="22"/>
+      <c r="U18" s="5">
+        <v>2011</v>
+      </c>
+      <c r="V18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.71562427882177893</v>
+      </c>
+      <c r="W18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.97083378940792286</v>
+      </c>
+      <c r="X18" s="28">
+        <f t="shared" si="0"/>
+        <v>1.125694299043422</v>
+      </c>
+      <c r="Y18" s="28">
+        <f t="shared" si="0"/>
+        <v>1.125694299043422</v>
+      </c>
+      <c r="Z18" s="28">
+        <f t="shared" si="2"/>
+        <v>0.91851228440145727</v>
+      </c>
+      <c r="AA18" s="28">
+        <f t="shared" si="1"/>
+        <v>0.99451509730891896</v>
+      </c>
+      <c r="AB18" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0222437844704382</v>
+      </c>
+      <c r="AC18" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0222437844704382</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>2000</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>0.96763531828284499</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>0.98915918974871242</v>
+      </c>
+      <c r="AH18" s="13">
+        <f>AF18-V18</f>
+        <v>0.25201103946106607</v>
+      </c>
+      <c r="AI18" s="13">
+        <f>AG18-Z18</f>
+        <v>7.0646905347255151E-2</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>2010</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>0.9722911328263466</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>0.99501247919268243</v>
+      </c>
+      <c r="AM18" s="14">
+        <f>AK18-W18</f>
+        <v>1.4573434184237399E-3</v>
+      </c>
+      <c r="AN18" s="14">
+        <f>AL18-AA18</f>
+        <v>4.9738188376347026E-4</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>2015</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>1.125694299043422</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>1.0222437844704382</v>
+      </c>
+      <c r="AR18" s="14">
+        <f>AP18-X18</f>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="14">
+        <f>AQ18-AB18</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" ht="12" customHeight="1">
-      <c r="S9" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W9" s="28">
-        <f t="shared" ref="W9:Z37" si="2">(EXP(($I9/100)*MIN(($I$5-$I$4),IF($R9&lt;W$5,ABS($I$5-$R9),ABS($R9-$I$4)))))^(IF(AND(W$5&lt;$R9,W$5&lt;$I$5,$R9&gt;$I$4), -1, IF(AND(W$5&gt;$R9,W$5&gt;$I$4,$R9&lt;$I$5),1,0)))*(EXP(($J9/100)*MIN(($J$5-$J$4),IF($R9&lt;W$5,ABS($J$5-$R9),ABS($R9-$J$4)))))^(IF(AND(W$5&lt;$R9,W$5&lt;$J$5,$R9&gt;$J$4), -1, IF(AND(W$5&gt;$R9,W$5&gt;$J$4,$R9&lt;$J$5),1,0)))*(EXP(($K9/100)*MIN(($K$5-$K$4),IF($R9&lt;W$5,ABS($K$5-$R9),ABS($R9-$K$4)))))^(IF(AND(W$5&lt;$R9,W$5&lt;$K$5,$R9&gt;$K$4), -1, IF(AND(W$5&gt;$R9,W$5&gt;$K$4,$R9&lt;$K$5),1,0)))*(EXP(($L9/100)*MIN(($L$5-$L$4),IF($R9&lt;W$5,ABS($L$5-$R9),ABS($R9-$L$4)))))^(IF(AND(W$5&lt;$R9,W$5&lt;$L$5,$R9&gt;$L$4), -1, IF(AND(W$5&gt;$R9,W$5&gt;$L$4,$R9&lt;$L$5),1,0)))*(EXP(($M9/100)*MIN(($M$5-$M$4),IF($R9&lt;W$5,ABS($M$5-$R9),ABS($R9-$M$4)))))^(IF(AND(W$5&lt;$R9,W$5&lt;$M$5,$R9&gt;$M$4), -1, IF(AND(W$5&gt;$R9,W$5&gt;$M$4,$R9&lt;$M$5),1,0)))*(EXP(($N9/100)*MIN(($N$5-$N$4),IF($R9&lt;W$5,ABS($N$5-$R9),ABS($R9-$N$4)))))^(IF(AND(W$5&lt;$R9,W$5&lt;$N$5,$R9&gt;$N$4), -1, IF(AND(W$5&gt;$R9,W$5&gt;$N$4,$R9&lt;$N$5),1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="X9" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y9" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z9" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>76</v>
+    <row r="19" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.71</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="N19" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5">
+        <v>69122</v>
+      </c>
+      <c r="S19" s="5">
+        <v>70876</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5">
+        <v>2006</v>
+      </c>
+      <c r="V19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.90014447568703837</v>
+      </c>
+      <c r="W19" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0669456139210736</v>
+      </c>
+      <c r="X19" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1558083854732184</v>
+      </c>
+      <c r="Y19" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1558083854732184</v>
+      </c>
+      <c r="Z19" s="28">
+        <f t="shared" si="2"/>
+        <v>0.95963718331711234</v>
+      </c>
+      <c r="AA19" s="28">
+        <f t="shared" si="1"/>
+        <v>1.010858530520097</v>
+      </c>
+      <c r="AB19" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0068231724945436</v>
+      </c>
+      <c r="AC19" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0068231724945436</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>2000</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="13">
+        <f t="shared" ref="AH19:AH44" si="3">AF19-V19</f>
+        <v>9.985552431296163E-2</v>
+      </c>
+      <c r="AI19" s="13">
+        <f t="shared" ref="AI19:AI44" si="4">AG19-Z19</f>
+        <v>4.0362816682887659E-2</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>2010</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>1.0669456139210736</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>1.010858530520097</v>
+      </c>
+      <c r="AM19" s="14">
+        <f t="shared" ref="AM19:AM44" si="5">AK19-W19</f>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="14">
+        <f t="shared" ref="AN19:AN44" si="6">AL19-AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>2015</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>1.1558083854732184</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>1.0068231724945436</v>
+      </c>
+      <c r="AR19" s="14">
+        <f t="shared" ref="AR19:AR44" si="7">AP19-X19</f>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="14">
+        <f t="shared" ref="AS19:AS44" si="8">AQ19-AB19</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="12" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="S10" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T10" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V10" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W10" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z10" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC10" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH10" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM10" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP10" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5">
-        <v>4.01</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3.64</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3.29</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2.81</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>1.72</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1.47</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="22">
-        <v>148692</v>
-      </c>
-      <c r="P11" s="22">
-        <v>158317</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="5">
-        <v>2011</v>
-      </c>
-      <c r="S11" s="28">
-        <f t="shared" si="0"/>
-        <v>0.71562427882177893</v>
-      </c>
-      <c r="T11" s="28">
-        <f t="shared" si="0"/>
-        <v>0.97083378940792286</v>
-      </c>
-      <c r="U11" s="28">
-        <f t="shared" si="0"/>
-        <v>1.125694299043422</v>
-      </c>
-      <c r="V11" s="28">
-        <f t="shared" si="0"/>
-        <v>1.125694299043422</v>
-      </c>
-      <c r="W11" s="28">
-        <f t="shared" si="2"/>
-        <v>0.91851228440145727</v>
-      </c>
-      <c r="X11" s="28">
-        <f t="shared" si="1"/>
-        <v>0.99451509730891896</v>
-      </c>
-      <c r="Y11" s="28">
-        <f t="shared" si="1"/>
-        <v>1.0222437844704382</v>
-      </c>
-      <c r="Z11" s="28">
-        <f t="shared" si="1"/>
-        <v>1.0222437844704382</v>
-      </c>
-      <c r="AB11" s="13">
+    <row r="20" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5">
+        <v>93261</v>
+      </c>
+      <c r="S20" s="5">
+        <v>101421</v>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5">
+        <v>2007</v>
+      </c>
+      <c r="V20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.86796837440746444</v>
+      </c>
+      <c r="W20" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0611996357097904</v>
+      </c>
+      <c r="X20" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1822270615674328</v>
+      </c>
+      <c r="Y20" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1822270615674328</v>
+      </c>
+      <c r="Z20" s="28">
+        <f t="shared" si="2"/>
+        <v>0.87783204180162855</v>
+      </c>
+      <c r="AA20" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0457140986172913</v>
+      </c>
+      <c r="AB20" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1109327746934696</v>
+      </c>
+      <c r="AC20" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1109327746934696</v>
+      </c>
+      <c r="AE20" s="13">
         <v>2000</v>
       </c>
-      <c r="AC11" s="13">
-        <v>0.96763531828284499</v>
-      </c>
-      <c r="AD11" s="13">
-        <v>0.98915918974871242</v>
-      </c>
-      <c r="AE11" s="13">
-        <f>AC11-S11</f>
-        <v>0.25201103946106607</v>
-      </c>
-      <c r="AF11" s="13">
-        <f>AD11-W11</f>
-        <v>7.0646905347255151E-2</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>2010</v>
-      </c>
-      <c r="AH11" s="4">
-        <v>0.9722911328263466</v>
-      </c>
-      <c r="AI11" s="4">
-        <v>0.99501247919268243</v>
-      </c>
-      <c r="AJ11" s="14">
-        <f>AH11-T11</f>
-        <v>1.4573434184237399E-3</v>
-      </c>
-      <c r="AK11" s="14">
-        <f>AI11-X11</f>
-        <v>4.9738188376347026E-4</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>2015</v>
-      </c>
-      <c r="AM11" s="4">
-        <v>1.125694299043422</v>
-      </c>
-      <c r="AN11" s="4">
-        <v>1.0222437844704382</v>
-      </c>
-      <c r="AO11" s="14">
-        <f>AM11-U11</f>
-        <v>0</v>
-      </c>
-      <c r="AP11" s="14">
-        <f>AN11-Y11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.71</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.78</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.62</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="M12" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5">
-        <v>69122</v>
-      </c>
-      <c r="P12" s="5">
-        <v>70876</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5">
-        <v>2006</v>
-      </c>
-      <c r="S12" s="28">
-        <f t="shared" si="0"/>
-        <v>0.90014447568703837</v>
-      </c>
-      <c r="T12" s="28">
-        <f t="shared" si="0"/>
-        <v>1.0669456139210736</v>
-      </c>
-      <c r="U12" s="28">
-        <f t="shared" si="0"/>
-        <v>1.1558083854732184</v>
-      </c>
-      <c r="V12" s="28">
-        <f t="shared" si="0"/>
-        <v>1.1558083854732184</v>
-      </c>
-      <c r="W12" s="28">
-        <f t="shared" si="2"/>
-        <v>0.95963718331711234</v>
-      </c>
-      <c r="X12" s="28">
-        <f t="shared" si="1"/>
-        <v>1.010858530520097</v>
-      </c>
-      <c r="Y12" s="28">
-        <f t="shared" si="1"/>
-        <v>1.0068231724945436</v>
-      </c>
-      <c r="Z12" s="28">
-        <f t="shared" si="1"/>
-        <v>1.0068231724945436</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>2000</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="13">
-        <f t="shared" ref="AE12:AE37" si="3">AC12-S12</f>
-        <v>9.985552431296163E-2</v>
-      </c>
-      <c r="AF12" s="13">
-        <f t="shared" ref="AF12:AF37" si="4">AD12-W12</f>
-        <v>4.0362816682887659E-2</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>2010</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>1.0669456139210736</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>1.010858530520097</v>
-      </c>
-      <c r="AJ12" s="14">
-        <f t="shared" ref="AJ12:AJ37" si="5">AH12-T12</f>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="14">
-        <f t="shared" ref="AK12:AK37" si="6">AI12-X12</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="5">
-        <v>2015</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>1.1558083854732184</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>1.0068231724945436</v>
-      </c>
-      <c r="AO12" s="14">
-        <f t="shared" ref="AO12:AO37" si="7">AM12-U12</f>
-        <v>0</v>
-      </c>
-      <c r="AP12" s="14">
-        <f t="shared" ref="AP12:AP37" si="8">AN12-Y12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.21</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.08</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2.04</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1.98</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2.16</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J13" s="5">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1.49</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5">
-        <v>93261</v>
-      </c>
-      <c r="P13" s="5">
-        <v>101421</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5">
-        <v>2007</v>
-      </c>
-      <c r="S13" s="28">
-        <f t="shared" si="0"/>
-        <v>0.86796837440746444</v>
-      </c>
-      <c r="T13" s="28">
-        <f t="shared" si="0"/>
-        <v>1.0611996357097904</v>
-      </c>
-      <c r="U13" s="28">
-        <f t="shared" si="0"/>
-        <v>1.1822270615674328</v>
-      </c>
-      <c r="V13" s="28">
-        <f t="shared" si="0"/>
-        <v>1.1822270615674328</v>
-      </c>
-      <c r="W13" s="28">
-        <f t="shared" si="2"/>
-        <v>0.87783204180162855</v>
-      </c>
-      <c r="X13" s="28">
-        <f t="shared" si="1"/>
-        <v>1.0457140986172913</v>
-      </c>
-      <c r="Y13" s="28">
-        <f t="shared" si="1"/>
-        <v>1.1109327746934696</v>
-      </c>
-      <c r="Z13" s="28">
-        <f t="shared" si="1"/>
-        <v>1.1109327746934696</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>2000</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="13">
+      <c r="AF20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="13">
         <f t="shared" si="3"/>
         <v>0.13203162559253556</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AI20" s="13">
         <f t="shared" si="4"/>
         <v>0.12216795819837145</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AJ20" s="5">
         <v>2010</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AK20" s="4">
         <v>1.0611996357097904</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AL20" s="4">
         <v>1.0457140986172913</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AM20" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="14">
+      <c r="AN20" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AO20" s="5">
         <v>2015</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AP20" s="4">
         <v>1.1822270615674328</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AQ20" s="4">
         <v>1.1109327746934696</v>
       </c>
-      <c r="AO13" s="14">
+      <c r="AR20" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="14">
+      <c r="AS20" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="5" t="s">
+    <row r="21" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="5">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E21" s="5">
         <v>6.76</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F21" s="5">
         <v>5.98</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G21" s="5">
         <v>5.3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H21" s="5">
         <v>4.41</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K21" s="5">
         <v>0.92</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L21" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M21" s="5">
         <v>-0.15</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N21" s="5">
         <v>-0.39</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5">
         <v>6201</v>
       </c>
-      <c r="P14" s="5">
+      <c r="S21" s="5">
         <v>6628</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5">
+      <c r="T21" s="5"/>
+      <c r="U21" s="5">
         <v>2009</v>
       </c>
-      <c r="S14" s="28">
+      <c r="V21" s="28">
         <f t="shared" si="0"/>
         <v>0.59989538338118553</v>
       </c>
-      <c r="T14" s="28">
+      <c r="W21" s="28">
         <f t="shared" si="0"/>
         <v>1.054429645119356</v>
       </c>
-      <c r="U14" s="28">
+      <c r="X21" s="28">
         <f t="shared" si="0"/>
         <v>1.3145573592120587</v>
       </c>
-      <c r="V14" s="28">
+      <c r="Y21" s="28">
         <f t="shared" si="0"/>
         <v>1.3145573592120587</v>
       </c>
-      <c r="W14" s="28">
+      <c r="Z21" s="28">
         <f t="shared" si="2"/>
         <v>0.99900049983337502</v>
       </c>
-      <c r="X14" s="28">
+      <c r="AA21" s="28">
         <f t="shared" si="1"/>
         <v>0.99850112443771089</v>
       </c>
-      <c r="Y14" s="28">
+      <c r="AB21" s="28">
         <f t="shared" si="1"/>
         <v>0.97921896456945956</v>
       </c>
-      <c r="Z14" s="28">
+      <c r="AC21" s="28">
         <f t="shared" si="1"/>
         <v>0.97921896456945956</v>
       </c>
-      <c r="AB14" s="13">
+      <c r="AE21" s="13">
         <v>2000</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AF21" s="13">
         <v>1.4021405034053205</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AG21" s="13">
         <v>1.0470744109569372</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="AH21" s="13">
         <f t="shared" si="3"/>
         <v>0.80224512002413495</v>
       </c>
-      <c r="AF14" s="13">
+      <c r="AI21" s="13">
         <f t="shared" si="4"/>
         <v>4.8073911123562185E-2</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AJ21" s="5">
         <v>2010</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AK21" s="4">
         <v>1.054429645119356</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AL21" s="4">
         <v>0.99850112443771089</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AM21" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="14">
+      <c r="AN21" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AO21" s="5">
         <v>2015</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AP21" s="4">
         <v>1.3145573592120587</v>
       </c>
-      <c r="AN14" s="4">
+      <c r="AQ21" s="4">
         <v>0.97921896456945956</v>
       </c>
-      <c r="AO14" s="14">
+      <c r="AR21" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="14">
+      <c r="AS21" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="22" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="C22" s="3"/>
+      <c r="D22" s="5">
         <v>5.32</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E22" s="5">
         <v>3.59</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F22" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G22" s="5">
         <v>1.79</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H22" s="5">
         <v>2.13</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
         <v>2.75</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K22" s="5">
         <v>1.86</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L22" s="5">
         <v>1.27</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M22" s="5">
         <v>0.98</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N22" s="5">
         <v>0.97</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5">
         <v>14138</v>
       </c>
-      <c r="P15" s="5">
+      <c r="S22" s="5">
         <v>15015</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5">
+      <c r="T22" s="5"/>
+      <c r="U22" s="5">
         <v>2008</v>
       </c>
-      <c r="S15" s="28">
+      <c r="V22" s="28">
         <f t="shared" si="0"/>
         <v>0.85624391157527857</v>
       </c>
-      <c r="T15" s="28">
+      <c r="W22" s="28">
         <f t="shared" si="0"/>
         <v>1.0364485360533604</v>
       </c>
-      <c r="U15" s="28">
+      <c r="X22" s="28">
         <f t="shared" si="0"/>
         <v>1.1529224734027024</v>
       </c>
-      <c r="V15" s="28">
+      <c r="Y22" s="28">
         <f t="shared" si="0"/>
         <v>1.1529224734027024</v>
       </c>
-      <c r="W15" s="28">
+      <c r="Z22" s="28">
         <f t="shared" si="2"/>
         <v>0.91128462420228962</v>
       </c>
-      <c r="X15" s="28">
+      <c r="AA22" s="28">
         <f t="shared" si="1"/>
         <v>1.0197933410959712</v>
       </c>
-      <c r="Y15" s="28">
+      <c r="AB22" s="28">
         <f t="shared" si="1"/>
         <v>1.0704723503616269</v>
       </c>
-      <c r="Z15" s="28">
+      <c r="AC22" s="28">
         <f t="shared" si="1"/>
         <v>1.0704723503616269</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AE22" s="13">
         <v>2000</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AF22" s="13">
         <v>1.0744404344866749</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AG22" s="13">
         <v>1.0379005801975687</v>
       </c>
-      <c r="AE15" s="13">
+      <c r="AH22" s="13">
         <f t="shared" si="3"/>
         <v>0.21819652291139635</v>
       </c>
-      <c r="AF15" s="13">
+      <c r="AI22" s="13">
         <f t="shared" si="4"/>
         <v>0.12661595599527908</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AJ22" s="5">
         <v>2010</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AK22" s="4">
         <v>1.0364485360533604</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AL22" s="4">
         <v>1.0197933410959712</v>
       </c>
-      <c r="AJ15" s="14">
+      <c r="AM22" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="14">
+      <c r="AN22" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AO22" s="5">
         <v>2015</v>
       </c>
-      <c r="AM15" s="4">
+      <c r="AP22" s="4">
         <v>1.1529224734027024</v>
       </c>
-      <c r="AN15" s="4">
+      <c r="AQ22" s="4">
         <v>1.0704723503616269</v>
       </c>
-      <c r="AO15" s="14">
+      <c r="AR22" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="14">
+      <c r="AS22" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="5" t="s">
+    <row r="23" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2.13</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="L23" s="5">
+        <v>-0.01</v>
+      </c>
+      <c r="M23" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="N23" s="5">
+        <v>-0.06</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5">
+        <v>47963</v>
+      </c>
+      <c r="S23" s="5">
+        <v>49902</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5">
+        <v>2002</v>
+      </c>
+      <c r="V23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.95829463126618741</v>
+      </c>
+      <c r="W23" s="28">
+        <f t="shared" si="0"/>
+        <v>1.2049041256484099</v>
+      </c>
+      <c r="X23" s="28">
+        <f t="shared" si="0"/>
+        <v>1.3646527490877614</v>
+      </c>
+      <c r="Y23" s="28">
+        <f t="shared" si="0"/>
+        <v>1.3646527490877614</v>
+      </c>
+      <c r="Z23" s="28">
+        <f t="shared" si="2"/>
+        <v>1.0002000200013335</v>
+      </c>
+      <c r="AA23" s="28">
+        <f t="shared" si="1"/>
+        <v>0.99570923176306614</v>
+      </c>
+      <c r="AB23" s="28">
+        <f t="shared" si="1"/>
+        <v>0.9927265802819869</v>
+      </c>
+      <c r="AC23" s="28">
+        <f t="shared" si="1"/>
+        <v>0.9927265802819869</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>2000</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>0.95829463126618741</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>1.0002000200013335</v>
+      </c>
+      <c r="AH23" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>2010</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>1.2049041256484099</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>0.99570923176306614</v>
+      </c>
+      <c r="AM23" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="5">
+        <v>2015</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>1.3646527490877614</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>0.9927265802819869</v>
+      </c>
+      <c r="AR23" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5">
-        <v>2.23</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2.13</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="B24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="5">
+        <v>4.82</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.58</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="H24" s="5">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G16" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="K16" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="L16" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="M16" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5">
-        <v>47963</v>
-      </c>
-      <c r="P16" s="5">
-        <v>49902</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5">
-        <v>2002</v>
-      </c>
-      <c r="S16" s="28">
-        <f>(EXP(($C16/100)*MIN(($C$5-$C$4),IF($R16&lt;S$5,ABS($C$5-$R16),ABS($R16-$C$4)))))^(IF(AND(S$5&lt;$R16,S$5&lt;$C$5,$R16&gt;$C$4), -1, IF(AND(S$5&gt;$R16,S$5&gt;$C$4,$R16&lt;$C$5),1,0)))*(EXP(($D16/100)*MIN(($D$5-$D$4),IF($R16&lt;S$5,ABS($D$5-$R16),ABS($R16-$D$4)))))^(IF(AND(S$5&lt;$R16,S$5&lt;$D$5,$R16&gt;$D$4), -1, IF(AND(S$5&gt;$R16,S$5&gt;$D$4,$R16&lt;$D$5),1,0)))*(EXP(($E16/100)*MIN(($E$5-$E$4),IF($R16&lt;S$5,ABS($E$5-$R16),ABS($R16-$E$4)))))^(IF(AND(S$5&lt;$R16,S$5&lt;$E$5,$R16&gt;$E$4), -1, IF(AND(S$5&gt;$R16,S$5&gt;$E$4,$R16&lt;$E$5),1,0)))*(EXP(($F16/100)*MIN(($F$5-$F$4),IF($R16&lt;S$5,ABS($F$5-$R16),ABS($R16-$F$4)))))^(IF(AND(S$5&lt;$R16,S$5&lt;$F$5,$R16&gt;$F$4), -1, IF(AND(S$5&gt;$R16,S$5&gt;$F$4,$R16&lt;$F$5),1,0)))*(EXP(($G16/100)*MIN(($G$5-$G$4),IF($R16&lt;S$5,ABS($G$5-$R16),ABS($R16-$G$4)))))^(IF(AND(S$5&lt;$R16,S$5&lt;$G$5,$R16&gt;$G$4), -1, IF(AND(S$5&gt;$R16,S$5&gt;$G$4,$R16&lt;$G$5),1,0)))*(EXP(($H16/100)*MIN(($H$5-$H$4),IF($R16&lt;S$5,ABS($H$5-$R16),ABS($R16-$H$4)))))^(IF(AND(S$5&lt;$R16,S$5&lt;$H$5,$R16&gt;$H$4), -1, IF(AND(S$5&gt;$R16,S$5&gt;$H$4,$R16&lt;$H$5),1,0)))</f>
-        <v>0.95829463126618741</v>
-      </c>
-      <c r="T16" s="28">
-        <f>(EXP(($C16/100)*MIN(($C$5-$C$4),IF($R16&lt;T$5,ABS($C$5-$R16),ABS($R16-$C$4)))))^(IF(AND(T$5&lt;$R16,T$5&lt;$C$5,$R16&gt;$C$4), -1, IF(AND(T$5&gt;$R16,T$5&gt;$C$4,$R16&lt;$C$5),1,0)))*(EXP(($D16/100)*MIN(($D$5-$D$4),IF($R16&lt;T$5,ABS($D$5-$R16),ABS($R16-$D$4)))))^(IF(AND(T$5&lt;$R16,T$5&lt;$D$5,$R16&gt;$D$4), -1, IF(AND(T$5&gt;$R16,T$5&gt;$D$4,$R16&lt;$D$5),1,0)))*(EXP(($E16/100)*MIN(($E$5-$E$4),IF($R16&lt;T$5,ABS($E$5-$R16),ABS($R16-$E$4)))))^(IF(AND(T$5&lt;$R16,T$5&lt;$E$5,$R16&gt;$E$4), -1, IF(AND(T$5&gt;$R16,T$5&gt;$E$4,$R16&lt;$E$5),1,0)))*(EXP(($F16/100)*MIN(($F$5-$F$4),IF($R16&lt;T$5,ABS($F$5-$R16),ABS($R16-$F$4)))))^(IF(AND(T$5&lt;$R16,T$5&lt;$F$5,$R16&gt;$F$4), -1, IF(AND(T$5&gt;$R16,T$5&gt;$F$4,$R16&lt;$F$5),1,0)))*(EXP(($G16/100)*MIN(($G$5-$G$4),IF($R16&lt;T$5,ABS($G$5-$R16),ABS($R16-$G$4)))))^(IF(AND(T$5&lt;$R16,T$5&lt;$G$5,$R16&gt;$G$4), -1, IF(AND(T$5&gt;$R16,T$5&gt;$G$4,$R16&lt;$G$5),1,0)))*(EXP(($H16/100)*MIN(($H$5-$H$4),IF($R16&lt;T$5,ABS($H$5-$R16),ABS($R16-$H$4)))))^(IF(AND(T$5&lt;$R16,T$5&lt;$H$5,$R16&gt;$H$4), -1, IF(AND(T$5&gt;$R16,T$5&gt;$H$4,$R16&lt;$H$5),1,0)))</f>
-        <v>1.2049041256484099</v>
-      </c>
-      <c r="U16" s="28">
-        <f>(EXP(($C16/100)*MIN(($C$5-$C$4),IF($R16&lt;U$5,ABS($C$5-$R16),ABS($R16-$C$4)))))^(IF(AND(U$5&lt;$R16,U$5&lt;$C$5,$R16&gt;$C$4), -1, IF(AND(U$5&gt;$R16,U$5&gt;$C$4,$R16&lt;$C$5),1,0)))*(EXP(($D16/100)*MIN(($D$5-$D$4),IF($R16&lt;U$5,ABS($D$5-$R16),ABS($R16-$D$4)))))^(IF(AND(U$5&lt;$R16,U$5&lt;$D$5,$R16&gt;$D$4), -1, IF(AND(U$5&gt;$R16,U$5&gt;$D$4,$R16&lt;$D$5),1,0)))*(EXP(($E16/100)*MIN(($E$5-$E$4),IF($R16&lt;U$5,ABS($E$5-$R16),ABS($R16-$E$4)))))^(IF(AND(U$5&lt;$R16,U$5&lt;$E$5,$R16&gt;$E$4), -1, IF(AND(U$5&gt;$R16,U$5&gt;$E$4,$R16&lt;$E$5),1,0)))*(EXP(($F16/100)*MIN(($F$5-$F$4),IF($R16&lt;U$5,ABS($F$5-$R16),ABS($R16-$F$4)))))^(IF(AND(U$5&lt;$R16,U$5&lt;$F$5,$R16&gt;$F$4), -1, IF(AND(U$5&gt;$R16,U$5&gt;$F$4,$R16&lt;$F$5),1,0)))*(EXP(($G16/100)*MIN(($G$5-$G$4),IF($R16&lt;U$5,ABS($G$5-$R16),ABS($R16-$G$4)))))^(IF(AND(U$5&lt;$R16,U$5&lt;$G$5,$R16&gt;$G$4), -1, IF(AND(U$5&gt;$R16,U$5&gt;$G$4,$R16&lt;$G$5),1,0)))*(EXP(($H16/100)*MIN(($H$5-$H$4),IF($R16&lt;U$5,ABS($H$5-$R16),ABS($R16-$H$4)))))^(IF(AND(U$5&lt;$R16,U$5&lt;$H$5,$R16&gt;$H$4), -1, IF(AND(U$5&gt;$R16,U$5&gt;$H$4,$R16&lt;$H$5),1,0)))</f>
-        <v>1.3646527490877614</v>
-      </c>
-      <c r="V16" s="28">
-        <f>(EXP(($C16/100)*MIN(($C$5-$C$4),IF($R16&lt;V$5,ABS($C$5-$R16),ABS($R16-$C$4)))))^(IF(AND(V$5&lt;$R16,V$5&lt;$C$5,$R16&gt;$C$4), -1, IF(AND(V$5&gt;$R16,V$5&gt;$C$4,$R16&lt;$C$5),1,0)))*(EXP(($D16/100)*MIN(($D$5-$D$4),IF($R16&lt;V$5,ABS($D$5-$R16),ABS($R16-$D$4)))))^(IF(AND(V$5&lt;$R16,V$5&lt;$D$5,$R16&gt;$D$4), -1, IF(AND(V$5&gt;$R16,V$5&gt;$D$4,$R16&lt;$D$5),1,0)))*(EXP(($E16/100)*MIN(($E$5-$E$4),IF($R16&lt;V$5,ABS($E$5-$R16),ABS($R16-$E$4)))))^(IF(AND(V$5&lt;$R16,V$5&lt;$E$5,$R16&gt;$E$4), -1, IF(AND(V$5&gt;$R16,V$5&gt;$E$4,$R16&lt;$E$5),1,0)))*(EXP(($F16/100)*MIN(($F$5-$F$4),IF($R16&lt;V$5,ABS($F$5-$R16),ABS($R16-$F$4)))))^(IF(AND(V$5&lt;$R16,V$5&lt;$F$5,$R16&gt;$F$4), -1, IF(AND(V$5&gt;$R16,V$5&gt;$F$4,$R16&lt;$F$5),1,0)))*(EXP(($G16/100)*MIN(($G$5-$G$4),IF($R16&lt;V$5,ABS($G$5-$R16),ABS($R16-$G$4)))))^(IF(AND(V$5&lt;$R16,V$5&lt;$G$5,$R16&gt;$G$4), -1, IF(AND(V$5&gt;$R16,V$5&gt;$G$4,$R16&lt;$G$5),1,0)))*(EXP(($H16/100)*MIN(($H$5-$H$4),IF($R16&lt;V$5,ABS($H$5-$R16),ABS($R16-$H$4)))))^(IF(AND(V$5&lt;$R16,V$5&lt;$H$5,$R16&gt;$H$4), -1, IF(AND(V$5&gt;$R16,V$5&gt;$H$4,$R16&lt;$H$5),1,0)))</f>
-        <v>1.3646527490877614</v>
-      </c>
-      <c r="W16" s="28">
-        <f t="shared" si="2"/>
-        <v>1.0002000200013335</v>
-      </c>
-      <c r="X16" s="28">
-        <f t="shared" si="1"/>
-        <v>0.99570923176306614</v>
-      </c>
-      <c r="Y16" s="28">
-        <f t="shared" si="1"/>
-        <v>0.9927265802819869</v>
-      </c>
-      <c r="Z16" s="28">
-        <f t="shared" si="1"/>
-        <v>0.9927265802819869</v>
-      </c>
-      <c r="AB16" s="13">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="K24" s="5">
+        <v>-0.62</v>
+      </c>
+      <c r="L24" s="5">
+        <v>-1.01</v>
+      </c>
+      <c r="M24" s="5">
+        <v>-1.25</v>
+      </c>
+      <c r="N24" s="5">
+        <v>-1.02</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5">
+        <v>28401</v>
+      </c>
+      <c r="S24" s="5">
+        <v>30714</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5">
+        <v>2010</v>
+      </c>
+      <c r="V24" s="28">
+        <f t="shared" si="0"/>
+        <v>0.70963821156020868</v>
+      </c>
+      <c r="W24" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X24" s="28">
+        <f t="shared" si="0"/>
+        <v>1.130319120074011</v>
+      </c>
+      <c r="Y24" s="28">
+        <f t="shared" si="0"/>
+        <v>1.130319120074011</v>
+      </c>
+      <c r="Z24" s="28">
+        <f t="shared" si="2"/>
+        <v>1.119631932948586</v>
+      </c>
+      <c r="AA24" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="28">
+        <f t="shared" si="1"/>
+        <v>0.95027867053242698</v>
+      </c>
+      <c r="AC24" s="28">
+        <f t="shared" si="1"/>
+        <v>0.95027867053242698</v>
+      </c>
+      <c r="AE24" s="13">
         <v>2000</v>
       </c>
-      <c r="AC16" s="13">
-        <v>0.95829463126618741</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>1.0002000200013335</v>
-      </c>
-      <c r="AE16" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>2010</v>
-      </c>
-      <c r="AH16" s="4">
-        <v>1.2049041256484099</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>0.99570923176306614</v>
-      </c>
-      <c r="AJ16" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="5">
-        <v>2015</v>
-      </c>
-      <c r="AM16" s="4">
-        <v>1.3646527490877614</v>
-      </c>
-      <c r="AN16" s="4">
-        <v>0.9927265802819869</v>
-      </c>
-      <c r="AO16" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AP16" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4.82</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4.58</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="J17" s="5">
-        <v>-0.62</v>
-      </c>
-      <c r="K17" s="5">
-        <v>-1.01</v>
-      </c>
-      <c r="L17" s="5">
-        <v>-1.25</v>
-      </c>
-      <c r="M17" s="5">
-        <v>-1.02</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5">
-        <v>28401</v>
-      </c>
-      <c r="P17" s="5">
-        <v>30714</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5">
-        <v>2010</v>
-      </c>
-      <c r="S17" s="28">
-        <f t="shared" si="0"/>
-        <v>0.70963821156020868</v>
-      </c>
-      <c r="T17" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="28">
-        <f t="shared" si="0"/>
-        <v>1.130319120074011</v>
-      </c>
-      <c r="V17" s="28">
-        <f t="shared" si="0"/>
-        <v>1.130319120074011</v>
-      </c>
-      <c r="W17" s="28">
-        <f t="shared" si="2"/>
-        <v>1.119631932948586</v>
-      </c>
-      <c r="X17" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y17" s="28">
-        <f t="shared" si="1"/>
-        <v>0.95027867053242698</v>
-      </c>
-      <c r="Z17" s="28">
-        <f t="shared" si="1"/>
-        <v>0.95027867053242698</v>
-      </c>
-      <c r="AB17" s="13">
-        <v>2000</v>
-      </c>
-      <c r="AC17" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="13">
+      <c r="AF24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="13">
         <f t="shared" si="3"/>
         <v>0.29036178843979132</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="AI24" s="13">
         <f t="shared" si="4"/>
         <v>-0.11963193294858598</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AJ24" s="5">
         <v>2010</v>
       </c>
-      <c r="AH17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="14">
+      <c r="AK24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="14">
+      <c r="AN24" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AO24" s="5">
         <v>2015</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AP24" s="4">
         <v>1.130319120074011</v>
       </c>
-      <c r="AN17" s="4">
+      <c r="AQ24" s="4">
         <v>0.95027867053242698</v>
       </c>
-      <c r="AO17" s="14">
+      <c r="AR24" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP17" s="14">
+      <c r="AS24" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="5" t="s">
+    <row r="25" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="C25" s="25"/>
+      <c r="D25" s="5">
         <v>3.61</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E25" s="5">
         <v>3.15</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F25" s="5">
         <v>2.74</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G25" s="5">
         <v>2.44</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H25" s="5">
         <v>2.13</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5">
         <v>1.06</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K25" s="5">
         <v>0.76</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L25" s="5">
         <v>0.39</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M25" s="5">
         <v>0.25</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N25" s="5">
         <v>0.1</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5">
         <v>399</v>
       </c>
-      <c r="P18" s="5">
+      <c r="S25" s="5">
         <v>433</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5">
+      <c r="T25" s="5"/>
+      <c r="U25" s="5">
         <v>2011</v>
       </c>
-      <c r="S18" s="28">
+      <c r="V25" s="28">
         <f t="shared" si="0"/>
         <v>0.75555704034015625</v>
       </c>
-      <c r="T18" s="28">
+      <c r="W25" s="28">
         <f t="shared" si="0"/>
         <v>0.97892524294053596</v>
       </c>
-      <c r="U18" s="28">
+      <c r="X25" s="28">
         <f t="shared" si="0"/>
         <v>1.0889348318875314</v>
       </c>
-      <c r="V18" s="28">
+      <c r="Y25" s="28">
         <f t="shared" si="0"/>
         <v>1.0889348318875314</v>
       </c>
-      <c r="W18" s="28">
+      <c r="Z25" s="28">
         <f t="shared" si="2"/>
         <v>0.9675385595890319</v>
       </c>
-      <c r="X18" s="28">
+      <c r="AA25" s="28">
         <f t="shared" si="1"/>
         <v>0.99900049983337491</v>
       </c>
-      <c r="Y18" s="28">
+      <c r="AB25" s="28">
         <f t="shared" si="1"/>
         <v>1.0040080106773419</v>
       </c>
-      <c r="Z18" s="28">
+      <c r="AC25" s="28">
         <f t="shared" si="1"/>
         <v>1.0040080106773419</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AE25" s="13">
         <v>2000</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AF25" s="13">
         <v>0.97297197488624487</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AG25" s="13">
         <v>0.99610759512313196</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AH25" s="13">
         <f t="shared" si="3"/>
         <v>0.21741493454608862</v>
       </c>
-      <c r="AF18" s="13">
+      <c r="AI25" s="13">
         <f t="shared" si="4"/>
         <v>2.8569035534100062E-2</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AJ25" s="5">
         <v>2010</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AK25" s="4">
         <v>0.97589527356645034</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AL25" s="4">
         <v>0.99750312239745997</v>
       </c>
-      <c r="AJ18" s="14">
+      <c r="AM25" s="14">
         <f t="shared" si="5"/>
         <v>-3.0299693740856171E-3</v>
       </c>
-      <c r="AK18" s="14">
+      <c r="AN25" s="14">
         <f t="shared" si="6"/>
         <v>-1.4973774359149372E-3</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AO25" s="5">
         <v>2015</v>
       </c>
-      <c r="AM18" s="4">
+      <c r="AP25" s="4">
         <v>1.0889348318875314</v>
       </c>
-      <c r="AN18" s="4">
+      <c r="AQ25" s="4">
         <v>1.0040080106773419</v>
       </c>
-      <c r="AO18" s="14">
+      <c r="AR25" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="14">
+      <c r="AS25" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="5" t="s">
+    <row r="26" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="C26" s="3"/>
+      <c r="D26" s="5">
         <v>2.79</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E26" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F26" s="5">
         <v>2.67</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G26" s="5">
         <v>2.56</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H26" s="5">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
         <v>1.69</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K26" s="5">
         <v>1.48</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L26" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M26" s="5">
         <v>0.95</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N26" s="5">
         <v>0.79</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5">
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5">
         <v>1224614</v>
       </c>
-      <c r="P19" s="5">
+      <c r="S26" s="5">
         <v>1308221</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5">
+      <c r="T26" s="5"/>
+      <c r="U26" s="5">
         <v>2011</v>
       </c>
-      <c r="S19" s="28">
+      <c r="V26" s="28">
         <f t="shared" si="0"/>
         <v>0.7511123784479472</v>
       </c>
-      <c r="T19" s="28">
+      <c r="W26" s="28">
         <f t="shared" si="0"/>
         <v>0.97560254889527631</v>
       </c>
-      <c r="U19" s="28">
+      <c r="X26" s="28">
         <f t="shared" si="0"/>
         <v>1.1038455083788241</v>
       </c>
-      <c r="V19" s="28">
+      <c r="Y26" s="28">
         <f t="shared" si="0"/>
         <v>1.1038455083788241</v>
       </c>
-      <c r="W19" s="28">
+      <c r="Z26" s="28">
         <f t="shared" si="2"/>
         <v>0.89413366639647784</v>
       </c>
-      <c r="X19" s="28">
+      <c r="AA26" s="28">
         <f t="shared" si="1"/>
         <v>0.9921311229888693</v>
       </c>
-      <c r="Y19" s="28">
+      <c r="AB26" s="28">
         <f t="shared" si="1"/>
         <v>1.0321045808933844</v>
       </c>
-      <c r="Z19" s="28">
+      <c r="AC26" s="28">
         <f t="shared" si="1"/>
         <v>1.0321045808933844</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AE26" s="13">
         <v>2000</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AF26" s="13">
         <v>0.97365329370243037</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AG26" s="13">
         <v>0.98876360519499817</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AH26" s="13">
         <f t="shared" si="3"/>
         <v>0.22254091525448316</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="AI26" s="13">
         <f t="shared" si="4"/>
         <v>9.462993879852033E-2</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AJ26" s="5">
         <v>2010</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AK26" s="4">
         <v>0.97472490160179381</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AL26" s="4">
         <v>0.99054498244290046</v>
       </c>
-      <c r="AJ19" s="14">
+      <c r="AM26" s="14">
         <f t="shared" si="5"/>
         <v>-8.7764729348249748E-4</v>
       </c>
-      <c r="AK19" s="14">
+      <c r="AN26" s="14">
         <f t="shared" si="6"/>
         <v>-1.5861405459688394E-3</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AO26" s="5">
         <v>2015</v>
       </c>
-      <c r="AM19" s="4">
+      <c r="AP26" s="4">
         <v>1.1038455083788241</v>
       </c>
-      <c r="AN19" s="4">
+      <c r="AQ26" s="4">
         <v>1.0321045808933844</v>
       </c>
-      <c r="AO19" s="14">
+      <c r="AR26" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP19" s="14">
+      <c r="AS26" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="5" t="s">
+    <row r="27" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="C27" s="3"/>
+      <c r="D27" s="5">
         <v>0.1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E27" s="5">
         <v>-0.35</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F27" s="5">
         <v>0.38</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G27" s="5">
         <v>0.89</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H27" s="5">
         <v>1.36</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
         <v>1.19</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K27" s="5">
         <v>0.73</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L27" s="5">
         <v>1.28</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M27" s="5">
         <v>1.02</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N27" s="5">
         <v>0.7</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5">
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5">
         <v>20860</v>
       </c>
-      <c r="P20" s="5">
+      <c r="S27" s="5">
         <v>21709</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5">
+      <c r="T27" s="5"/>
+      <c r="U27" s="5">
         <v>2010</v>
       </c>
-      <c r="S20" s="28">
+      <c r="V27" s="28">
         <f t="shared" si="0"/>
         <v>0.93847411930066382</v>
       </c>
-      <c r="T20" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="28">
+      <c r="W27" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X27" s="28">
         <f t="shared" si="0"/>
         <v>1.0703653084787743</v>
       </c>
-      <c r="V20" s="28">
+      <c r="Y27" s="28">
         <f t="shared" si="0"/>
         <v>1.0703653084787743</v>
       </c>
-      <c r="W20" s="28">
+      <c r="Z27" s="28">
         <f t="shared" si="2"/>
         <v>0.89136614390683155</v>
       </c>
-      <c r="X20" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="28">
+      <c r="AA27" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB27" s="28">
         <f t="shared" si="1"/>
         <v>1.0356197087996233</v>
       </c>
-      <c r="Z20" s="28">
+      <c r="AC27" s="28">
         <f t="shared" si="1"/>
         <v>1.0356197087996233</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AE27" s="13">
         <v>2000</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AF27" s="13">
         <v>0.99620721086334807</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AG27" s="13">
         <v>0.98728157159029051</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="AH27" s="13">
         <f t="shared" si="3"/>
         <v>5.7733091562684247E-2</v>
       </c>
-      <c r="AF20" s="13">
+      <c r="AI27" s="13">
         <f t="shared" si="4"/>
         <v>9.5915427683458954E-2</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AJ27" s="5">
         <v>2010</v>
       </c>
-      <c r="AH20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="14">
+      <c r="AK27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="14">
+      <c r="AN27" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AO27" s="5">
         <v>2015</v>
       </c>
-      <c r="AM20" s="4">
+      <c r="AP27" s="4">
         <v>1.0703653084787743</v>
       </c>
-      <c r="AN20" s="4">
+      <c r="AQ27" s="4">
         <v>1.0356197087996233</v>
       </c>
-      <c r="AO20" s="14">
+      <c r="AR27" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="14">
+      <c r="AS27" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="5" t="s">
+    <row r="28" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="C28" s="3"/>
+      <c r="D28" s="5">
         <v>3.78</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E28" s="5">
         <v>3.12</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F28" s="5">
         <v>3.34</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G28" s="5">
         <v>3.26</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H28" s="5">
         <v>3.03</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
         <v>1.47</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K28" s="5">
         <v>0.67</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L28" s="5">
         <v>0.3</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M28" s="5">
         <v>0.22</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N28" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5">
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5">
         <v>89029</v>
       </c>
-      <c r="P21" s="5">
+      <c r="S28" s="5">
         <v>93647</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5">
+      <c r="T28" s="5"/>
+      <c r="U28" s="5">
         <v>1999</v>
       </c>
-      <c r="S21" s="28">
+      <c r="V28" s="28">
         <f t="shared" si="0"/>
         <v>1.0316918216183855</v>
       </c>
-      <c r="T21" s="28">
+      <c r="W28" s="28">
         <f t="shared" si="0"/>
         <v>1.4350504422679138</v>
       </c>
-      <c r="U21" s="28">
+      <c r="X28" s="28">
         <f t="shared" si="0"/>
         <v>1.6697935566253228</v>
       </c>
-      <c r="V21" s="28">
+      <c r="Y28" s="28">
         <f t="shared" si="0"/>
         <v>1.6697935566253228</v>
       </c>
-      <c r="W21" s="28">
+      <c r="Z28" s="28">
         <f t="shared" si="2"/>
         <v>1.0067224952112424</v>
       </c>
-      <c r="X21" s="28">
+      <c r="AA28" s="28">
         <f t="shared" si="1"/>
         <v>1.0332405205846567</v>
       </c>
-      <c r="Y21" s="28">
+      <c r="AB28" s="28">
         <f t="shared" si="1"/>
         <v>1.0368631983947212</v>
       </c>
-      <c r="Z21" s="28">
+      <c r="AC28" s="28">
         <f t="shared" si="1"/>
         <v>1.0368631983947212</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AE28" s="13">
         <v>2000</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AF28" s="13">
         <v>1.0316918216183855</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AG28" s="13">
         <v>1.0067224952112424</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AH28" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AI28" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AJ28" s="5">
         <v>2009</v>
       </c>
-      <c r="AH21" s="4">
+      <c r="AK28" s="4">
         <v>1.3890221355967833</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AL28" s="4">
         <v>1.0169419136023259</v>
       </c>
-      <c r="AJ21" s="14">
+      <c r="AM28" s="14">
         <f t="shared" si="5"/>
         <v>-4.6028306671130448E-2</v>
       </c>
-      <c r="AK21" s="14">
+      <c r="AN28" s="14">
         <f t="shared" si="6"/>
         <v>-1.6298606982330766E-2</v>
       </c>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="4">
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="4">
         <v>1.6697935566253228</v>
       </c>
-      <c r="AN21" s="4">
+      <c r="AQ28" s="4">
         <v>1.0368631983947212</v>
       </c>
-      <c r="AO21" s="14">
+      <c r="AR28" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="14">
+      <c r="AS28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="5" t="s">
+    <row r="29" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="C29" s="3"/>
+      <c r="D29" s="5">
         <v>4.3099999999999996</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E29" s="5">
         <v>0.94</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F29" s="5">
         <v>5.37</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G29" s="5">
         <v>3.53</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H29" s="5">
         <v>4.25</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K29" s="5">
         <v>-0.99</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L29" s="5">
         <v>3.45</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M29" s="5">
         <v>1.62</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N29" s="5">
         <v>2.38</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5">
         <v>1124</v>
       </c>
-      <c r="P22" s="5">
+      <c r="S29" s="5">
         <v>1301</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5">
+      <c r="T29" s="5"/>
+      <c r="U29" s="5">
         <v>2010</v>
       </c>
-      <c r="S22" s="28">
+      <c r="V29" s="28">
         <f t="shared" si="0"/>
         <v>0.64082427603231884</v>
       </c>
-      <c r="T22" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="28">
+      <c r="W29" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="28">
         <f t="shared" si="0"/>
         <v>1.2367661135652848</v>
       </c>
-      <c r="V22" s="28">
+      <c r="Y29" s="28">
         <f t="shared" si="0"/>
         <v>1.2367661135652848</v>
       </c>
-      <c r="W22" s="28">
+      <c r="Z29" s="28">
         <f t="shared" si="2"/>
         <v>0.77607974492513665</v>
       </c>
-      <c r="X22" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y22" s="28">
+      <c r="AA29" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="28">
         <f t="shared" si="1"/>
         <v>1.1263699182883529</v>
       </c>
-      <c r="Z22" s="28">
+      <c r="AC29" s="28">
         <f t="shared" si="1"/>
         <v>1.1263699182883529</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AE29" s="13">
         <v>2000</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AF29" s="13">
         <v>0.80670276459726653</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AG29" s="13">
         <v>0.87109869174579835</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AH29" s="13">
         <f t="shared" si="3"/>
         <v>0.16587848856494769</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AI29" s="13">
         <f t="shared" si="4"/>
         <v>9.5018946820661698E-2</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AJ29" s="5">
         <v>2010</v>
       </c>
-      <c r="AH22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="14">
+      <c r="AK29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="14">
+      <c r="AN29" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AO29" s="5">
         <v>2015</v>
       </c>
-      <c r="AM22" s="4">
+      <c r="AP29" s="4">
         <v>1.2367661135652848</v>
       </c>
-      <c r="AN22" s="4">
+      <c r="AQ29" s="4">
         <v>1.1263699182883529</v>
       </c>
-      <c r="AO22" s="14">
+      <c r="AR29" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP22" s="14">
+      <c r="AS29" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="5" t="s">
+    <row r="30" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="C30" s="3"/>
+      <c r="D30" s="5">
         <v>4.58</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E30" s="5">
         <v>4.6900000000000004</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F30" s="5">
         <v>3.05</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G30" s="5">
         <v>2.74</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H30" s="5">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
         <v>0.08</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K30" s="5">
         <v>-0.75</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L30" s="5">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M30" s="5">
         <v>-0.46</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N30" s="5">
         <v>-0.61</v>
       </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5">
         <v>239871</v>
       </c>
-      <c r="P23" s="5">
+      <c r="S30" s="5">
         <v>251880</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5">
+      <c r="T30" s="5"/>
+      <c r="U30" s="5">
         <v>2010</v>
       </c>
-      <c r="S23" s="28">
+      <c r="V30" s="28">
         <f t="shared" si="0"/>
         <v>0.74863779291089139</v>
       </c>
-      <c r="T23" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U23" s="28">
+      <c r="W30" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X30" s="28">
         <f t="shared" si="0"/>
         <v>1.130319120074011</v>
       </c>
-      <c r="V23" s="28">
+      <c r="Y30" s="28">
         <f t="shared" si="0"/>
         <v>1.130319120074011</v>
       </c>
-      <c r="W23" s="28">
+      <c r="Z30" s="28">
         <f t="shared" si="2"/>
         <v>1.0304545339535169</v>
       </c>
-      <c r="X23" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y23" s="28">
+      <c r="AA30" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="28">
         <f t="shared" si="1"/>
         <v>0.9699604320672105</v>
       </c>
-      <c r="Z23" s="28">
+      <c r="AC30" s="28">
         <f t="shared" si="1"/>
         <v>0.9699604320672105</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AE30" s="13">
         <v>2000</v>
       </c>
-      <c r="AC23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="13">
+      <c r="AF30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="13">
         <f t="shared" si="3"/>
         <v>0.25136220708910861</v>
       </c>
-      <c r="AF23" s="13">
+      <c r="AI30" s="13">
         <f t="shared" si="4"/>
         <v>-3.0454533953516938E-2</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AJ30" s="5">
         <v>2010</v>
       </c>
-      <c r="AH23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="14">
+      <c r="AK30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="14">
+      <c r="AN30" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="5">
+      <c r="AO30" s="5">
         <v>2015</v>
       </c>
-      <c r="AM23" s="4">
+      <c r="AP30" s="4">
         <v>1.130319120074011</v>
       </c>
-      <c r="AN23" s="4">
+      <c r="AQ30" s="4">
         <v>0.9699604320672105</v>
       </c>
-      <c r="AO23" s="14">
+      <c r="AR30" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP23" s="14">
+      <c r="AS30" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="5" t="s">
+    <row r="31" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="C31" s="3"/>
+      <c r="D31" s="5">
         <v>2.87</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E31" s="5">
         <v>2.37</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F31" s="5">
         <v>1.7</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G31" s="5">
         <v>3.52</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H31" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5">
         <v>5086</v>
       </c>
-      <c r="P24" s="5">
+      <c r="S31" s="5">
         <v>5375</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5">
+      <c r="T31" s="5"/>
+      <c r="U31" s="5">
         <v>2010</v>
       </c>
-      <c r="S24" s="28">
-        <f t="shared" ref="S24:V37" si="9">(EXP(($C24/100)*MIN(($C$5-$C$4),IF($R24&lt;S$5,ABS($C$5-$R24),ABS($R24-$C$4)))))^(IF(AND(S$5&lt;$R24,S$5&lt;$C$5,$R24&gt;$C$4), -1, IF(AND(S$5&gt;$R24,S$5&gt;$C$4,$R24&lt;$C$5),1,0)))*(EXP(($D24/100)*MIN(($D$5-$D$4),IF($R24&lt;S$5,ABS($D$5-$R24),ABS($R24-$D$4)))))^(IF(AND(S$5&lt;$R24,S$5&lt;$D$5,$R24&gt;$D$4), -1, IF(AND(S$5&gt;$R24,S$5&gt;$D$4,$R24&lt;$D$5),1,0)))*(EXP(($E24/100)*MIN(($E$5-$E$4),IF($R24&lt;S$5,ABS($E$5-$R24),ABS($R24-$E$4)))))^(IF(AND(S$5&lt;$R24,S$5&lt;$E$5,$R24&gt;$E$4), -1, IF(AND(S$5&gt;$R24,S$5&gt;$E$4,$R24&lt;$E$5),1,0)))*(EXP(($F24/100)*MIN(($F$5-$F$4),IF($R24&lt;S$5,ABS($F$5-$R24),ABS($R24-$F$4)))))^(IF(AND(S$5&lt;$R24,S$5&lt;$F$5,$R24&gt;$F$4), -1, IF(AND(S$5&gt;$R24,S$5&gt;$F$4,$R24&lt;$F$5),1,0)))*(EXP(($G24/100)*MIN(($G$5-$G$4),IF($R24&lt;S$5,ABS($G$5-$R24),ABS($R24-$G$4)))))^(IF(AND(S$5&lt;$R24,S$5&lt;$G$5,$R24&gt;$G$4), -1, IF(AND(S$5&gt;$R24,S$5&gt;$G$4,$R24&lt;$G$5),1,0)))*(EXP(($H24/100)*MIN(($H$5-$H$4),IF($R24&lt;S$5,ABS($H$5-$R24),ABS($R24-$H$4)))))^(IF(AND(S$5&lt;$R24,S$5&lt;$H$5,$R24&gt;$H$4), -1, IF(AND(S$5&gt;$R24,S$5&gt;$H$4,$R24&lt;$H$5),1,0)))</f>
+      <c r="V31" s="28">
+        <f t="shared" ref="V31:Y44" si="9">(EXP(($D31/100)*MIN(($D$5-$D$4),IF($U31&lt;V$5,ABS($D$5-$U31),ABS($U31-$D$4)))))^(IF(AND(V$5&lt;$U31,V$5&lt;$D$5,$U31&gt;$D$4), -1, IF(AND(V$5&gt;$U31,V$5&gt;$D$4,$U31&lt;$D$5),1,0)))*(EXP(($E31/100)*MIN(($E$5-$E$4),IF($U31&lt;V$5,ABS($E$5-$U31),ABS($U31-$E$4)))))^(IF(AND(V$5&lt;$U31,V$5&lt;$E$5,$U31&gt;$E$4), -1, IF(AND(V$5&gt;$U31,V$5&gt;$E$4,$U31&lt;$E$5),1,0)))*(EXP(($F31/100)*MIN(($F$5-$F$4),IF($U31&lt;V$5,ABS($F$5-$U31),ABS($U31-$F$4)))))^(IF(AND(V$5&lt;$U31,V$5&lt;$F$5,$U31&gt;$F$4), -1, IF(AND(V$5&gt;$U31,V$5&gt;$F$4,$U31&lt;$F$5),1,0)))*(EXP(($G31/100)*MIN(($G$5-$G$4),IF($U31&lt;V$5,ABS($G$5-$U31),ABS($U31-$G$4)))))^(IF(AND(V$5&lt;$U31,V$5&lt;$G$5,$U31&gt;$G$4), -1, IF(AND(V$5&gt;$U31,V$5&gt;$G$4,$U31&lt;$G$5),1,0)))*(EXP(($H31/100)*MIN(($H$5-$H$4),IF($U31&lt;V$5,ABS($H$5-$U31),ABS($U31-$H$4)))))^(IF(AND(V$5&lt;$U31,V$5&lt;$H$5,$U31&gt;$H$4), -1, IF(AND(V$5&gt;$U31,V$5&gt;$H$4,$U31&lt;$H$5),1,0)))*(EXP(($I31/100)*MIN(($I$5-$I$4),IF($U31&lt;V$5,ABS($I$5-$U31),ABS($U31-$I$4)))))^(IF(AND(V$5&lt;$U31,V$5&lt;$I$5,$U31&gt;$I$4), -1, IF(AND(V$5&gt;$U31,V$5&gt;$I$4,$U31&lt;$I$5),1,0)))</f>
         <v>0.77028091961507905</v>
       </c>
-      <c r="T24" s="28">
+      <c r="W31" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U24" s="28">
+      <c r="X31" s="28">
         <f t="shared" si="9"/>
         <v>1.0565406146754943</v>
       </c>
-      <c r="V24" s="28">
+      <c r="Y31" s="28">
         <f t="shared" si="9"/>
         <v>1.0565406146754943</v>
       </c>
-      <c r="W24" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X24" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y24" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Z24" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB24" s="13">
+      <c r="Z31" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA31" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE31" s="13">
         <v>2000</v>
       </c>
-      <c r="AC24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="13">
+      <c r="AF31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="13">
         <f t="shared" si="3"/>
         <v>0.22971908038492095</v>
       </c>
-      <c r="AF24" s="13">
+      <c r="AI31" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AJ31" s="5">
         <v>2010</v>
       </c>
-      <c r="AH24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="14">
+      <c r="AK31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="14">
+      <c r="AN31" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="5">
+      <c r="AO31" s="5">
         <v>2015</v>
       </c>
-      <c r="AM24" s="4">
+      <c r="AP31" s="4">
         <v>1.0565406146754943</v>
       </c>
-      <c r="AN24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="14">
+      <c r="AQ31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP24" s="14">
+      <c r="AS31" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="5" t="s">
+    <row r="32" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="C32" s="3"/>
+      <c r="D32" s="5">
         <v>1.26</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E32" s="5">
         <v>1.35</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F32" s="5">
         <v>1.51</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G32" s="5">
         <v>2.14</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H32" s="5">
         <v>2.73</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5">
         <v>2.73</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K32" s="5">
         <v>2.83</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L32" s="5">
         <v>2.65</v>
       </c>
-      <c r="L25" s="5">
+      <c r="M32" s="5">
         <v>2.39</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N32" s="5">
         <v>2.09</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5">
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5">
         <v>6858</v>
       </c>
-      <c r="P25" s="5">
+      <c r="S32" s="5">
         <v>7645</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5">
+      <c r="T32" s="5"/>
+      <c r="U32" s="5">
         <v>2011</v>
       </c>
-      <c r="S25" s="28">
+      <c r="V32" s="28">
         <f t="shared" si="9"/>
         <v>0.81074637903214697</v>
       </c>
-      <c r="T25" s="28">
+      <c r="W32" s="28">
         <f t="shared" si="9"/>
         <v>0.97306927694875567</v>
       </c>
-      <c r="U25" s="28">
+      <c r="X32" s="28">
         <f t="shared" si="9"/>
         <v>1.1153854051162502</v>
       </c>
-      <c r="V25" s="28">
+      <c r="Y32" s="28">
         <f t="shared" si="9"/>
         <v>1.1153854051162502</v>
       </c>
-      <c r="W25" s="28">
+      <c r="Z32" s="28">
         <f t="shared" si="2"/>
         <v>0.76116890071328791</v>
       </c>
-      <c r="X25" s="28">
+      <c r="AA32" s="28">
         <f t="shared" si="2"/>
         <v>0.9793168913621747</v>
       </c>
-      <c r="Y25" s="28">
+      <c r="AB32" s="28">
         <f t="shared" si="2"/>
         <v>1.0871939292500139</v>
       </c>
-      <c r="Z25" s="28">
+      <c r="AC32" s="28">
         <f t="shared" si="2"/>
         <v>1.0871939292500139</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AE32" s="13">
         <v>2000</v>
       </c>
-      <c r="AC25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="13">
+      <c r="AF32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="13">
         <f t="shared" si="3"/>
         <v>0.18925362096785303</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="AI32" s="13">
         <f t="shared" si="4"/>
         <v>0.23883109928671209</v>
       </c>
-      <c r="AG25" s="5">
+      <c r="AJ32" s="5">
         <v>2010</v>
       </c>
-      <c r="AH25" s="4">
+      <c r="AK32" s="4">
         <v>0.97882735531070508</v>
       </c>
-      <c r="AI25" s="4">
+      <c r="AL32" s="4">
         <v>0.97638334321047626</v>
       </c>
-      <c r="AJ25" s="14">
+      <c r="AM32" s="14">
         <f t="shared" si="5"/>
         <v>5.7580783619494147E-3</v>
       </c>
-      <c r="AK25" s="14">
+      <c r="AN32" s="14">
         <f t="shared" si="6"/>
         <v>-2.9335481516984396E-3</v>
       </c>
-      <c r="AL25" s="5">
+      <c r="AO32" s="5">
         <v>2015</v>
       </c>
-      <c r="AM25" s="4">
+      <c r="AP32" s="4">
         <v>1.1153854051162502</v>
       </c>
-      <c r="AN25" s="4">
+      <c r="AQ32" s="4">
         <v>1.0871939292500139</v>
       </c>
-      <c r="AO25" s="14">
+      <c r="AR32" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP25" s="14">
+      <c r="AS32" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="5" t="s">
+    <row r="33" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="C33" s="25"/>
+      <c r="D33" s="5">
         <v>4.21</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E33" s="5">
         <v>4.25</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F33" s="5">
         <v>5.17</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G33" s="5">
         <v>5.04</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H33" s="5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5">
         <v>2.59</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K33" s="5">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L33" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L26" s="5">
+      <c r="M33" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N33" s="5">
         <v>1.92</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5">
         <v>538</v>
       </c>
-      <c r="P26" s="5">
+      <c r="S33" s="5">
         <v>552</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5">
+      <c r="T33" s="5"/>
+      <c r="U33" s="5">
         <v>2009</v>
       </c>
-      <c r="S26" s="28">
+      <c r="V33" s="28">
         <f t="shared" si="9"/>
         <v>0.63122052029868814</v>
       </c>
-      <c r="T26" s="28">
+      <c r="W33" s="28">
         <f t="shared" si="9"/>
         <v>1.0516916889274768</v>
       </c>
-      <c r="U26" s="28">
+      <c r="X33" s="28">
         <f t="shared" si="9"/>
         <v>1.32697245793628</v>
       </c>
-      <c r="V26" s="28">
+      <c r="Y33" s="28">
         <f t="shared" si="9"/>
         <v>1.32697245793628</v>
       </c>
-      <c r="W26" s="28">
+      <c r="Z33" s="28">
         <f t="shared" si="2"/>
         <v>0.81693152529745738</v>
       </c>
-      <c r="X26" s="28">
+      <c r="AA33" s="28">
         <f t="shared" si="2"/>
         <v>1.0220393561570569</v>
       </c>
-      <c r="Y26" s="28">
+      <c r="AB33" s="28">
         <f t="shared" si="2"/>
         <v>1.1250190850484507</v>
       </c>
-      <c r="Z26" s="28">
+      <c r="AC33" s="28">
         <f t="shared" si="2"/>
         <v>1.1250190850484507</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AE33" s="13">
         <v>2000</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AF33" s="13">
         <v>1.0434160563736781</v>
       </c>
-      <c r="AD26" s="13">
+      <c r="AG33" s="13">
         <v>1.0250075721228384</v>
       </c>
-      <c r="AE26" s="13">
+      <c r="AH33" s="13">
         <f t="shared" si="3"/>
         <v>0.41219553607498993</v>
       </c>
-      <c r="AF26" s="13">
+      <c r="AI33" s="13">
         <f t="shared" si="4"/>
         <v>0.20807604682538106</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AJ33" s="5">
         <v>2010</v>
       </c>
-      <c r="AH26" s="4">
+      <c r="AK33" s="4">
         <v>1.0516916889274768</v>
       </c>
-      <c r="AI26" s="4">
+      <c r="AL33" s="4">
         <v>1.0220393561570569</v>
       </c>
-      <c r="AJ26" s="14">
+      <c r="AM33" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="14">
+      <c r="AN33" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="5">
+      <c r="AO33" s="5">
         <v>2015</v>
       </c>
-      <c r="AM26" s="4">
+      <c r="AP33" s="4">
         <v>1.32697245793628</v>
       </c>
-      <c r="AN26" s="4">
+      <c r="AQ33" s="4">
         <v>1.1250190850484507</v>
       </c>
-      <c r="AO26" s="14">
+      <c r="AR33" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="14">
+      <c r="AS33" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="5" t="s">
+    <row r="34" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="C34" s="25"/>
+      <c r="D34" s="5">
         <v>6.62</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E34" s="5">
         <v>6.63</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F34" s="5">
         <v>4.59</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G34" s="5">
         <v>3.82</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H34" s="5">
         <v>3.62</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5">
         <v>2.02</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K34" s="5">
         <v>1.87</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L34" s="5">
         <v>1.84</v>
       </c>
-      <c r="L27" s="5">
+      <c r="M34" s="5">
         <v>1.51</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N34" s="5">
         <v>1.27</v>
       </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5">
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5">
         <v>29959</v>
       </c>
-      <c r="P27" s="5">
+      <c r="S34" s="5">
         <v>32581</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5">
+      <c r="T34" s="5"/>
+      <c r="U34" s="5">
         <v>2011</v>
       </c>
-      <c r="S27" s="28">
+      <c r="V34" s="28">
         <f t="shared" si="9"/>
         <v>0.63337032266074345</v>
       </c>
-      <c r="T27" s="28">
+      <c r="W34" s="28">
         <f t="shared" si="9"/>
         <v>0.96444738471594604</v>
       </c>
-      <c r="U27" s="28">
+      <c r="X34" s="28">
         <f t="shared" si="9"/>
         <v>1.1558083854732182</v>
       </c>
-      <c r="V27" s="28">
+      <c r="Y34" s="28">
         <f t="shared" si="9"/>
         <v>1.1558083854732182</v>
       </c>
-      <c r="W27" s="28">
+      <c r="Z34" s="28">
         <f t="shared" si="2"/>
         <v>0.83510317407328039</v>
       </c>
-      <c r="X27" s="28">
+      <c r="AA34" s="28">
         <f t="shared" si="2"/>
         <v>0.98738030468402183</v>
       </c>
-      <c r="Y27" s="28">
+      <c r="AB34" s="28">
         <f t="shared" si="2"/>
         <v>1.0521124497496022</v>
       </c>
-      <c r="Z27" s="28">
+      <c r="AC34" s="28">
         <f t="shared" si="2"/>
         <v>1.0521124497496022</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AE34" s="13">
         <v>2000</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AF34" s="13">
         <v>0.95513747116230274</v>
       </c>
-      <c r="AD27" s="13">
+      <c r="AG34" s="13">
         <v>0.98176824650776462</v>
       </c>
-      <c r="AE27" s="13">
+      <c r="AH34" s="13">
         <f t="shared" si="3"/>
         <v>0.3217671485015593</v>
       </c>
-      <c r="AF27" s="13">
+      <c r="AI34" s="13">
         <f t="shared" si="4"/>
         <v>0.14666507243448423</v>
       </c>
-      <c r="AG27" s="5">
+      <c r="AJ34" s="5">
         <v>2010</v>
       </c>
-      <c r="AH27" s="4">
+      <c r="AK34" s="4">
         <v>0.96252041755599649</v>
       </c>
-      <c r="AI27" s="4">
+      <c r="AL34" s="4">
         <v>0.98501343333449776</v>
       </c>
-      <c r="AJ27" s="14">
+      <c r="AM34" s="14">
         <f t="shared" si="5"/>
         <v>-1.9269671599495553E-3</v>
       </c>
-      <c r="AK27" s="14">
+      <c r="AN34" s="14">
         <f t="shared" si="6"/>
         <v>-2.366871349524069E-3</v>
       </c>
-      <c r="AL27" s="5">
+      <c r="AO34" s="5">
         <v>2015</v>
       </c>
-      <c r="AM27" s="4">
+      <c r="AP34" s="4">
         <v>1.1558083854732182</v>
       </c>
-      <c r="AN27" s="4">
+      <c r="AQ34" s="4">
         <v>1.0521124497496022</v>
       </c>
-      <c r="AO27" s="14">
+      <c r="AR34" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP27" s="14">
+      <c r="AS34" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="26" t="s">
+    <row r="35" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="C35" s="25"/>
+      <c r="D35" s="5">
         <v>1.77</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E35" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F35" s="5">
         <v>0.86</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G35" s="5">
         <v>0.63</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H35" s="5">
         <v>0.63</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5">
         <v>1.25</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K35" s="5">
         <v>0.81</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L35" s="5">
         <v>0.54</v>
       </c>
-      <c r="L28" s="5">
+      <c r="M35" s="5">
         <v>0.3</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N35" s="5">
         <v>0.08</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5">
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5">
         <v>24346</v>
       </c>
-      <c r="P28" s="5">
+      <c r="S35" s="5">
         <v>24451</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5">
+      <c r="T35" s="5"/>
+      <c r="U35" s="5">
         <v>2008</v>
       </c>
-      <c r="S28" s="28">
+      <c r="V35" s="28">
         <f t="shared" si="9"/>
         <v>0.93997687977933919</v>
       </c>
-      <c r="T28" s="28">
+      <c r="W35" s="28">
         <f t="shared" si="9"/>
         <v>1.0126797144488495</v>
       </c>
-      <c r="U28" s="28">
+      <c r="X35" s="28">
         <f t="shared" si="9"/>
         <v>1.0450868583490185</v>
       </c>
-      <c r="V28" s="28">
+      <c r="Y35" s="28">
         <f t="shared" si="9"/>
         <v>1.0450868583490185</v>
       </c>
-      <c r="W28" s="28">
+      <c r="Z35" s="28">
         <f t="shared" si="2"/>
         <v>0.96464029348312297</v>
       </c>
-      <c r="X28" s="28">
+      <c r="AA35" s="28">
         <f t="shared" si="2"/>
         <v>1.0060180360540649</v>
       </c>
-      <c r="Y28" s="28">
+      <c r="AB35" s="28">
         <f t="shared" si="2"/>
         <v>1.0100501670841682</v>
       </c>
-      <c r="Z28" s="28">
+      <c r="AC35" s="28">
         <f t="shared" si="2"/>
         <v>1.0100501670841682</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AE35" s="13">
         <v>2000</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AF35" s="13">
         <v>0.93997687977933908</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AG35" s="13">
         <v>0.96464029348312308</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AH35" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="13">
+      <c r="AI35" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="5">
+      <c r="AJ35" s="5">
         <v>2010</v>
       </c>
-      <c r="AH28" s="4">
+      <c r="AK35" s="4">
         <v>1.0126797144488495</v>
       </c>
-      <c r="AI28" s="4">
+      <c r="AL35" s="4">
         <v>1.0060180360540649</v>
       </c>
-      <c r="AJ28" s="14">
+      <c r="AM35" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="14">
+      <c r="AN35" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="5">
+      <c r="AO35" s="5">
         <v>2015</v>
       </c>
-      <c r="AM28" s="4">
+      <c r="AP35" s="4">
         <v>1.0450868583490185</v>
       </c>
-      <c r="AN28" s="4">
+      <c r="AQ35" s="4">
         <v>1.0100501670841682</v>
       </c>
-      <c r="AO28" s="14">
+      <c r="AR35" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP28" s="14">
+      <c r="AS35" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="26" t="s">
+    <row r="36" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="C36" s="25"/>
+      <c r="D36" s="5">
         <v>1.92</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E36" s="5">
         <v>0.94</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F36" s="5">
         <v>0.88</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G36" s="5">
         <v>0.87</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H36" s="5">
         <v>0.71</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5">
         <v>-2.91</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K36" s="5">
         <v>-0.73</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L36" s="5">
         <v>-1.31</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M36" s="5">
         <v>-1.3</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N36" s="5">
         <v>-1.25</v>
       </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5">
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5">
         <v>48184</v>
       </c>
-      <c r="P29" s="5">
+      <c r="S36" s="5">
         <v>48391</v>
       </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5">
+      <c r="T36" s="5"/>
+      <c r="U36" s="5">
         <v>2010</v>
       </c>
-      <c r="S29" s="28">
+      <c r="V36" s="28">
         <f t="shared" si="9"/>
         <v>0.91621887165087779</v>
       </c>
-      <c r="T29" s="28">
+      <c r="W36" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U29" s="28">
+      <c r="X36" s="28">
         <f t="shared" si="9"/>
         <v>1.0361376481280649</v>
       </c>
-      <c r="V29" s="28">
+      <c r="Y36" s="28">
         <f t="shared" si="9"/>
         <v>1.0361376481280649</v>
       </c>
-      <c r="W29" s="28">
+      <c r="Z36" s="28">
         <f t="shared" si="2"/>
         <v>1.1393979398935605</v>
       </c>
-      <c r="X29" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y29" s="28">
+      <c r="AA36" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB36" s="28">
         <f t="shared" si="2"/>
         <v>0.93941306281347581</v>
       </c>
-      <c r="Z29" s="28">
+      <c r="AC36" s="28">
         <f t="shared" si="2"/>
         <v>0.93941306281347581</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AE36" s="13">
         <v>2000</v>
       </c>
-      <c r="AC29" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="13">
+      <c r="AF36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="13">
         <f t="shared" si="3"/>
         <v>8.3781128349122214E-2</v>
       </c>
-      <c r="AF29" s="13">
+      <c r="AI36" s="13">
         <f t="shared" si="4"/>
         <v>-0.13939793989356053</v>
       </c>
-      <c r="AG29" s="5">
+      <c r="AJ36" s="5">
         <v>2010</v>
       </c>
-      <c r="AH29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="14">
+      <c r="AK36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="14">
+      <c r="AN36" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="5">
+      <c r="AO36" s="5">
         <v>2015</v>
       </c>
-      <c r="AM29" s="4">
+      <c r="AP36" s="4">
         <v>1.0361376481280649</v>
       </c>
-      <c r="AN29" s="4">
+      <c r="AQ36" s="4">
         <v>0.93941306281347581</v>
       </c>
-      <c r="AO29" s="14">
+      <c r="AR36" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP29" s="14">
+      <c r="AS36" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="27" t="s">
+    <row r="37" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="C37" s="25"/>
+      <c r="D37" s="5">
         <v>-1.93</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E37" s="5">
         <v>-1.77</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F37" s="5">
         <v>-1.23</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G37" s="5">
         <v>-0.46</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H37" s="5">
         <v>-0.37</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5">
         <v>-0.96</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K37" s="5">
         <v>-0.8</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L37" s="5">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="L30" s="5">
+      <c r="M37" s="5">
         <v>-0.68</v>
       </c>
-      <c r="M30" s="5">
+      <c r="N37" s="5">
         <v>-0.85</v>
       </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5">
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5">
         <v>4352</v>
       </c>
-      <c r="P30" s="5">
+      <c r="S37" s="5">
         <v>4225</v>
       </c>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5">
+      <c r="T37" s="5"/>
+      <c r="U37" s="5">
         <v>2010</v>
       </c>
-      <c r="S30" s="28">
+      <c r="V37" s="28">
         <f t="shared" si="9"/>
         <v>1.0881728442320042</v>
       </c>
-      <c r="T30" s="28">
+      <c r="W37" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U30" s="28">
+      <c r="X37" s="28">
         <f t="shared" si="9"/>
         <v>0.98167007459179145</v>
       </c>
-      <c r="V30" s="28">
+      <c r="Y37" s="28">
         <f t="shared" si="9"/>
         <v>0.98167007459179145</v>
       </c>
-      <c r="W30" s="28">
+      <c r="Z37" s="28">
         <f t="shared" si="2"/>
         <v>1.0930806563263302</v>
       </c>
-      <c r="X30" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y30" s="28">
+      <c r="AA37" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB37" s="28">
         <f t="shared" si="2"/>
         <v>0.95839046552094698</v>
       </c>
-      <c r="Z30" s="28">
+      <c r="AC37" s="28">
         <f t="shared" si="2"/>
         <v>0.95839046552094698</v>
       </c>
-      <c r="AB30" s="13">
+      <c r="AE37" s="13">
         <v>2000</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AF37" s="13">
         <v>1.024905076490493</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AG37" s="13">
         <v>1.0222437844704382</v>
       </c>
-      <c r="AE30" s="13">
+      <c r="AH37" s="13">
         <f t="shared" si="3"/>
         <v>-6.3267767741511216E-2</v>
       </c>
-      <c r="AF30" s="13">
+      <c r="AI37" s="13">
         <f t="shared" si="4"/>
         <v>-7.0836871855892047E-2</v>
       </c>
-      <c r="AG30" s="5">
+      <c r="AJ37" s="5">
         <v>2010</v>
       </c>
-      <c r="AH30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="14">
+      <c r="AK37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="14">
+      <c r="AN37" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AO37" s="5">
         <v>2015</v>
       </c>
-      <c r="AM30" s="4">
+      <c r="AP37" s="4">
         <v>0.98167007459179145</v>
       </c>
-      <c r="AN30" s="4">
+      <c r="AQ37" s="4">
         <v>0.95839046552094698</v>
       </c>
-      <c r="AO30" s="14">
+      <c r="AR37" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP30" s="14">
+      <c r="AS37" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="27" t="s">
+    <row r="38" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="C38" s="25"/>
+      <c r="D38" s="5">
         <v>0.11</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E38" s="5">
         <v>0.93</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F38" s="5">
         <v>0.35</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G38" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H38" s="5">
         <v>1.31</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5">
         <v>1.33</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K38" s="5">
         <v>1.85</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L38" s="5">
         <v>0.35</v>
       </c>
-      <c r="L31" s="5">
+      <c r="M38" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N38" s="5">
         <v>0.94</v>
       </c>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5">
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5">
         <v>5334</v>
       </c>
-      <c r="P31" s="5">
+      <c r="S38" s="5">
         <v>5393</v>
       </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5">
+      <c r="T38" s="5"/>
+      <c r="U38" s="5">
         <v>2009</v>
       </c>
-      <c r="S31" s="28">
+      <c r="V38" s="28">
         <f t="shared" si="9"/>
         <v>0.93922519898792201</v>
       </c>
-      <c r="T31" s="28">
+      <c r="W38" s="28">
         <f t="shared" si="9"/>
         <v>1.0113640861637356</v>
       </c>
-      <c r="U31" s="28">
+      <c r="X38" s="28">
         <f t="shared" si="9"/>
         <v>1.0798260895767235</v>
       </c>
-      <c r="V31" s="28">
+      <c r="Y38" s="28">
         <f t="shared" si="9"/>
         <v>1.0798260895767235</v>
       </c>
-      <c r="W31" s="28">
+      <c r="Z38" s="28">
         <f t="shared" si="2"/>
         <v>0.9396009642155525</v>
       </c>
-      <c r="X31" s="28">
+      <c r="AA38" s="28">
         <f t="shared" si="2"/>
         <v>1.0112629548117711</v>
       </c>
-      <c r="Y31" s="28">
+      <c r="AB38" s="28">
         <f t="shared" si="2"/>
         <v>1.0599269599051426</v>
       </c>
-      <c r="Z31" s="28">
+      <c r="AC38" s="28">
         <f t="shared" si="2"/>
         <v>1.0599269599051426</v>
       </c>
-      <c r="AB31" s="13">
+      <c r="AE38" s="13">
         <v>2000</v>
       </c>
-      <c r="AC31" s="13">
+      <c r="AF38" s="13">
         <v>1.009343379371769</v>
       </c>
-      <c r="AD31" s="13">
+      <c r="AG38" s="13">
         <v>1.018672185169575</v>
       </c>
-      <c r="AE31" s="13">
+      <c r="AH38" s="13">
         <f t="shared" si="3"/>
         <v>7.0118180383846984E-2</v>
       </c>
-      <c r="AF31" s="13">
+      <c r="AI38" s="13">
         <f t="shared" si="4"/>
         <v>7.9071220954022525E-2</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AJ38" s="5">
         <v>2010</v>
       </c>
-      <c r="AH31" s="4">
+      <c r="AK38" s="4">
         <v>1.0113640861637356</v>
       </c>
-      <c r="AI31" s="4">
+      <c r="AL38" s="4">
         <v>1.0112629548117711</v>
       </c>
-      <c r="AJ31" s="14">
+      <c r="AM38" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="14">
+      <c r="AN38" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AO38" s="5">
         <v>2015</v>
       </c>
-      <c r="AM31" s="4">
+      <c r="AP38" s="4">
         <v>1.08177152690629</v>
       </c>
-      <c r="AN31" s="4">
+      <c r="AQ38" s="4">
         <v>1.0580208074292028</v>
       </c>
-      <c r="AO31" s="14">
+      <c r="AR38" s="14">
         <f t="shared" si="7"/>
         <v>1.945437329566424E-3</v>
       </c>
-      <c r="AP31" s="14">
+      <c r="AS38" s="14">
         <f t="shared" si="8"/>
         <v>-1.9061524759398374E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="27" t="s">
+    <row r="39" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="C39" s="25"/>
+      <c r="D39" s="5">
         <v>-0.13</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E39" s="5">
         <v>-0.4</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F39" s="5">
         <v>0.84</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G39" s="5">
         <v>1.33</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H39" s="5">
         <v>1.66</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5">
         <v>2.5</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K39" s="5">
         <v>1.99</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L39" s="5">
         <v>0.9</v>
       </c>
-      <c r="L32" s="5">
+      <c r="M39" s="5">
         <v>1.26</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N39" s="5">
         <v>1.39</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5">
         <v>6879</v>
       </c>
-      <c r="P32" s="5">
+      <c r="S39" s="5">
         <v>7400</v>
       </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5">
+      <c r="T39" s="5"/>
+      <c r="U39" s="5">
         <v>2010</v>
       </c>
-      <c r="S32" s="28">
+      <c r="V39" s="28">
         <f t="shared" si="9"/>
         <v>0.897178894816971</v>
       </c>
-      <c r="T32" s="28">
+      <c r="W39" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U32" s="28">
+      <c r="X39" s="28">
         <f t="shared" si="9"/>
         <v>1.0865418085482381</v>
       </c>
-      <c r="V32" s="28">
+      <c r="Y39" s="28">
         <f t="shared" si="9"/>
         <v>1.0865418085482381</v>
       </c>
-      <c r="W32" s="28">
+      <c r="Z39" s="28">
         <f t="shared" si="2"/>
         <v>0.89762759643043499</v>
       </c>
-      <c r="X32" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y32" s="28">
+      <c r="AA39" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB39" s="28">
         <f t="shared" si="2"/>
         <v>1.071972061204771</v>
       </c>
-      <c r="Z32" s="28">
+      <c r="AC39" s="28">
         <f t="shared" si="2"/>
         <v>1.071972061204771</v>
       </c>
-      <c r="AB32" s="13">
+      <c r="AE39" s="13">
         <v>2000</v>
       </c>
-      <c r="AC32" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="13">
+      <c r="AF39" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="13">
         <f t="shared" si="3"/>
         <v>0.102821105183029</v>
       </c>
-      <c r="AF32" s="13">
+      <c r="AI39" s="13">
         <f t="shared" si="4"/>
         <v>0.10237240356956501</v>
       </c>
-      <c r="AG32" s="5">
+      <c r="AJ39" s="5">
         <v>2010</v>
       </c>
-      <c r="AH32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="14">
+      <c r="AK39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="14">
+      <c r="AN39" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AO39" s="5">
         <v>2015</v>
       </c>
-      <c r="AM32" s="4">
+      <c r="AP39" s="4">
         <v>1.0865418085482381</v>
       </c>
-      <c r="AN32" s="4">
+      <c r="AQ39" s="4">
         <v>1.071972061204771</v>
       </c>
-      <c r="AO32" s="14">
+      <c r="AR39" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP32" s="14">
+      <c r="AS39" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="27" t="s">
+    <row r="40" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="C40" s="25"/>
+      <c r="D40" s="5">
         <v>0.9</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E40" s="5">
         <v>0.8</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F40" s="5">
         <v>0.3</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G40" s="5">
         <v>0.2</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H40" s="5">
         <v>0.2</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
         <v>0.9</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K40" s="5">
         <v>0.8</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L40" s="5">
         <v>0.3</v>
       </c>
-      <c r="L33" s="5">
+      <c r="M40" s="5">
         <v>0.2</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N40" s="5">
         <v>0.2</v>
       </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5">
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5">
         <v>23127</v>
       </c>
-      <c r="P33" s="5">
+      <c r="S40" s="5">
         <v>23415</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5">
+      <c r="T40" s="5"/>
+      <c r="U40" s="5">
         <v>2010</v>
       </c>
-      <c r="S33" s="28">
+      <c r="V40" s="28">
         <f t="shared" si="9"/>
         <v>0.97530991202833284</v>
       </c>
-      <c r="T33" s="28">
+      <c r="W40" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U33" s="28">
+      <c r="X40" s="28">
         <f t="shared" si="9"/>
         <v>1.0100501670841679</v>
       </c>
-      <c r="V33" s="28">
+      <c r="Y40" s="28">
         <f t="shared" si="9"/>
         <v>1.0100501670841679</v>
       </c>
-      <c r="W33" s="28">
+      <c r="Z40" s="28">
         <f t="shared" si="2"/>
         <v>0.97530991202833284</v>
       </c>
-      <c r="X33" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y33" s="28">
+      <c r="AA40" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB40" s="28">
         <f t="shared" si="2"/>
         <v>1.0100501670841679</v>
       </c>
-      <c r="Z33" s="28">
+      <c r="AC40" s="28">
         <f t="shared" si="2"/>
         <v>1.0100501670841679</v>
       </c>
-      <c r="AB33" s="13">
+      <c r="AE40" s="13">
         <v>2000</v>
       </c>
-      <c r="AC33" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="13">
+      <c r="AF40" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="13">
         <f t="shared" si="3"/>
         <v>2.4690087971667163E-2</v>
       </c>
-      <c r="AF33" s="13">
+      <c r="AI40" s="13">
         <f t="shared" si="4"/>
         <v>2.4690087971667163E-2</v>
       </c>
-      <c r="AG33" s="5">
+      <c r="AJ40" s="5">
         <v>2010</v>
       </c>
-      <c r="AH33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="14">
+      <c r="AK40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="14">
+      <c r="AN40" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="5">
+      <c r="AO40" s="5">
         <v>2015</v>
       </c>
-      <c r="AM33" s="4">
+      <c r="AP40" s="4">
         <v>1.0100501670841679</v>
       </c>
-      <c r="AN33" s="4">
+      <c r="AQ40" s="4">
         <v>1.0100501670841679</v>
       </c>
-      <c r="AO33" s="14">
+      <c r="AR40" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP33" s="14">
+      <c r="AS40" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="27" t="s">
+    <row r="41" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="C41" s="25"/>
+      <c r="D41" s="5">
         <v>0.93</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E41" s="5">
         <v>1.01</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F41" s="5">
         <v>2.89</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G41" s="5">
         <v>3.14</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H41" s="5">
         <v>2.81</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K41" s="5">
         <v>0.74</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L41" s="5">
         <v>-1.58</v>
       </c>
-      <c r="L34" s="5">
+      <c r="M41" s="5">
         <v>-1.33</v>
       </c>
-      <c r="M34" s="5">
+      <c r="N41" s="5">
         <v>-1.43</v>
       </c>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5">
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5">
         <v>2756</v>
       </c>
-      <c r="P34" s="5">
+      <c r="S41" s="5">
         <v>2975</v>
       </c>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5">
+      <c r="T41" s="5"/>
+      <c r="U41" s="5">
         <v>2010</v>
       </c>
-      <c r="S34" s="28">
+      <c r="V41" s="28">
         <f t="shared" si="9"/>
         <v>0.7397078263546395</v>
       </c>
-      <c r="T34" s="28">
+      <c r="W41" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U34" s="28">
+      <c r="X41" s="28">
         <f t="shared" si="9"/>
         <v>1.1508490795648478</v>
       </c>
-      <c r="V34" s="28">
+      <c r="Y41" s="28">
         <f t="shared" si="9"/>
         <v>1.1508490795648478</v>
       </c>
-      <c r="W34" s="28">
+      <c r="Z41" s="28">
         <f t="shared" si="2"/>
         <v>1.1566177345821891</v>
       </c>
-      <c r="X34" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y34" s="28">
+      <c r="AA41" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB41" s="28">
         <f t="shared" si="2"/>
         <v>0.93099627759486181</v>
       </c>
-      <c r="Z34" s="28">
+      <c r="AC41" s="28">
         <f t="shared" si="2"/>
         <v>0.93099627759486181</v>
       </c>
-      <c r="AB34" s="13">
+      <c r="AE41" s="13">
         <v>2000</v>
       </c>
-      <c r="AC34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="13">
+      <c r="AF41" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="13">
         <f t="shared" si="3"/>
         <v>0.2602921736453605</v>
       </c>
-      <c r="AF34" s="13">
+      <c r="AI41" s="13">
         <f t="shared" si="4"/>
         <v>-0.15661773458218908</v>
       </c>
-      <c r="AG34" s="5">
+      <c r="AJ41" s="5">
         <v>2010</v>
       </c>
-      <c r="AH34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="14">
+      <c r="AK41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="14">
+      <c r="AN41" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="5">
+      <c r="AO41" s="5">
         <v>2015</v>
       </c>
-      <c r="AM34" s="4">
+      <c r="AP41" s="4">
         <v>1.1508490795648478</v>
       </c>
-      <c r="AN34" s="4">
+      <c r="AQ41" s="4">
         <v>0.93099627759486181</v>
       </c>
-      <c r="AO34" s="14">
+      <c r="AR41" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP34" s="14">
+      <c r="AS41" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="13" t="s">
+    <row r="42" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="D42" s="13">
         <v>3.4</v>
       </c>
-      <c r="D35" s="13">
+      <c r="E42" s="13">
         <v>3.33</v>
       </c>
-      <c r="E35" s="13">
+      <c r="F42" s="13">
         <v>2.66</v>
       </c>
-      <c r="F35" s="13">
+      <c r="G42" s="13">
         <v>2.6</v>
       </c>
-      <c r="G35" s="13">
+      <c r="H42" s="13">
         <v>2.68</v>
       </c>
-      <c r="I35" s="13">
+      <c r="J42" s="13">
         <v>2.23</v>
       </c>
-      <c r="J35" s="13">
+      <c r="K42" s="13">
         <v>2.14</v>
       </c>
-      <c r="K35" s="13">
+      <c r="L42" s="13">
         <v>1.46</v>
       </c>
-      <c r="L35" s="13">
+      <c r="M42" s="13">
         <v>1.37</v>
       </c>
-      <c r="M35" s="13">
+      <c r="N42" s="13">
         <v>1.24</v>
       </c>
-      <c r="O35" s="13">
+      <c r="R42" s="13">
         <v>173593</v>
       </c>
-      <c r="P35" s="13">
+      <c r="S42" s="13">
         <v>189648</v>
       </c>
-      <c r="R35" s="13">
+      <c r="U42" s="13">
         <v>2010</v>
       </c>
-      <c r="S35" s="28">
+      <c r="V42" s="28">
         <f t="shared" si="9"/>
         <v>0.76874189731116038</v>
       </c>
-      <c r="T35" s="28">
+      <c r="W42" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U35" s="28">
+      <c r="X42" s="28">
         <f t="shared" si="9"/>
         <v>1.143392819644647</v>
       </c>
-      <c r="V35" s="28">
+      <c r="Y42" s="28">
         <f t="shared" si="9"/>
         <v>1.143392819644647</v>
       </c>
-      <c r="W35" s="28">
+      <c r="Z42" s="28">
         <f t="shared" si="2"/>
         <v>0.86805517558489176</v>
       </c>
-      <c r="X35" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y35" s="28">
+      <c r="AA42" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB42" s="28">
         <f t="shared" si="2"/>
         <v>1.0639623447280337</v>
       </c>
-      <c r="Z35" s="28">
+      <c r="AC42" s="28">
         <f t="shared" si="2"/>
         <v>1.0639623447280337</v>
       </c>
-      <c r="AB35" s="13">
+      <c r="AE42" s="13">
         <v>2000</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AF42" s="13">
         <v>1.068867845515564</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AG42" s="13">
         <v>1.0437291281490084</v>
       </c>
-      <c r="AE35" s="13">
+      <c r="AH42" s="13">
         <f t="shared" si="3"/>
         <v>0.30012594820440364</v>
       </c>
-      <c r="AF35" s="13">
+      <c r="AI42" s="13">
         <f t="shared" si="4"/>
         <v>0.17567395256411666</v>
       </c>
-      <c r="AG35" s="13">
+      <c r="AJ42" s="13">
         <v>2010</v>
       </c>
-      <c r="AH35" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="14">
+      <c r="AK42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="14">
+      <c r="AN42" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="5">
+      <c r="AO42" s="5">
         <v>2015</v>
       </c>
-      <c r="AM35" s="24">
+      <c r="AP42" s="24">
         <v>1.143392819644647</v>
       </c>
-      <c r="AN35" s="13">
+      <c r="AQ42" s="13">
         <v>1.0639623447280337</v>
       </c>
-      <c r="AO35" s="14">
+      <c r="AR42" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP35" s="14">
+      <c r="AS42" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="13" t="s">
+    <row r="43" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="D43" s="13">
         <v>4.32</v>
       </c>
-      <c r="D36" s="13">
+      <c r="E43" s="13">
         <v>3.84</v>
       </c>
-      <c r="E36" s="13">
+      <c r="F43" s="13">
         <v>4</v>
       </c>
-      <c r="F36" s="13">
+      <c r="G43" s="13">
         <v>3.44</v>
       </c>
-      <c r="G36" s="13">
+      <c r="H43" s="13">
         <v>2.85</v>
       </c>
-      <c r="I36" s="13">
+      <c r="J43" s="13">
         <v>-0.1</v>
       </c>
-      <c r="J36" s="13">
+      <c r="K43" s="13">
         <v>-0.59</v>
       </c>
-      <c r="K36" s="13">
+      <c r="L43" s="13">
         <v>-1.59</v>
       </c>
-      <c r="L36" s="13">
+      <c r="M43" s="13">
         <v>-1.97</v>
       </c>
-      <c r="M36" s="13">
+      <c r="N43" s="13">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="O36" s="13">
+      <c r="R43" s="13">
         <v>1341335</v>
       </c>
-      <c r="P36" s="13">
+      <c r="S43" s="13">
         <v>1369743</v>
       </c>
-      <c r="R36" s="13">
+      <c r="U43" s="13">
         <v>2010</v>
       </c>
-      <c r="S36" s="28">
+      <c r="V43" s="28">
         <f t="shared" si="9"/>
         <v>0.68935424252422228</v>
       </c>
-      <c r="T36" s="28">
+      <c r="W43" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U36" s="28">
+      <c r="X43" s="28">
         <f t="shared" si="9"/>
         <v>1.1531530809573696</v>
       </c>
-      <c r="V36" s="28">
+      <c r="Y43" s="28">
         <f t="shared" si="9"/>
         <v>1.1531530809573696</v>
       </c>
-      <c r="W36" s="28">
+      <c r="Z43" s="28">
         <f t="shared" si="2"/>
         <v>1.1948253212348008</v>
       </c>
-      <c r="X36" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y36" s="28">
+      <c r="AA43" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB43" s="28">
         <f t="shared" si="2"/>
         <v>0.89315066011601552</v>
       </c>
-      <c r="Z36" s="28">
+      <c r="AC43" s="28">
         <f t="shared" si="2"/>
         <v>0.89315066011601552</v>
       </c>
-      <c r="AB36" s="13">
+      <c r="AE43" s="13">
         <v>2000</v>
       </c>
-      <c r="AC36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="13">
+      <c r="AF43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="13">
         <f t="shared" si="3"/>
         <v>0.31064575747577772</v>
       </c>
-      <c r="AF36" s="13">
+      <c r="AI43" s="13">
         <f t="shared" si="4"/>
         <v>-0.19482532123480079</v>
       </c>
-      <c r="AG36" s="13">
+      <c r="AJ43" s="13">
         <v>2010</v>
       </c>
-      <c r="AH36" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="14">
+      <c r="AK43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="14">
+      <c r="AN43" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="5">
+      <c r="AO43" s="5">
         <v>2015</v>
       </c>
-      <c r="AM36" s="24">
+      <c r="AP43" s="24">
         <v>1.1531530809573696</v>
       </c>
-      <c r="AN36" s="13">
+      <c r="AQ43" s="13">
         <v>0.89315066011601552</v>
       </c>
-      <c r="AO36" s="14">
+      <c r="AR43" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP36" s="14">
+      <c r="AS43" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="13" t="s">
+    <row r="44" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="D44" s="13">
         <v>0.54</v>
       </c>
-      <c r="D37" s="13">
+      <c r="E44" s="13">
         <v>0.36</v>
       </c>
-      <c r="E37" s="13">
+      <c r="F44" s="13">
         <v>1.89</v>
       </c>
-      <c r="F37" s="13">
+      <c r="G44" s="13">
         <v>1.06</v>
       </c>
-      <c r="G37" s="13">
+      <c r="H44" s="13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I37" s="13">
+      <c r="J44" s="13">
         <v>-0.24</v>
       </c>
-      <c r="J37" s="13">
+      <c r="K44" s="13">
         <v>-0.39</v>
       </c>
-      <c r="K37" s="13">
+      <c r="L44" s="13">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="L37" s="13">
+      <c r="M44" s="13">
         <v>-7.85</v>
       </c>
-      <c r="M37" s="13">
+      <c r="N44" s="13">
         <v>-7.61</v>
       </c>
-      <c r="O37" s="13">
+      <c r="R44" s="13">
         <v>126536</v>
       </c>
-      <c r="P37" s="13">
+      <c r="S44" s="13">
         <v>126072</v>
       </c>
-      <c r="R37" s="13">
+      <c r="U44" s="13">
         <v>2010</v>
       </c>
-      <c r="S37" s="28">
+      <c r="V44" s="28">
         <f t="shared" si="9"/>
         <v>0.86286243832137532</v>
       </c>
-      <c r="T37" s="28">
+      <c r="W44" s="28">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U37" s="28">
+      <c r="X44" s="28">
         <f t="shared" si="9"/>
         <v>1.0289100108345239</v>
       </c>
-      <c r="V37" s="28">
+      <c r="Y44" s="28">
         <f t="shared" si="9"/>
         <v>1.0289100108345239</v>
       </c>
-      <c r="W37" s="28">
+      <c r="Z44" s="28">
         <f t="shared" si="2"/>
         <v>2.242295235571969</v>
       </c>
-      <c r="X37" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y37" s="28">
+      <c r="AA44" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB44" s="28">
         <f t="shared" si="2"/>
         <v>0.68351956397618052</v>
       </c>
-      <c r="Z37" s="28">
+      <c r="AC44" s="28">
         <f t="shared" si="2"/>
         <v>0.68351956397618052</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AE44" s="13">
         <v>2000</v>
       </c>
-      <c r="AC37" s="13">
+      <c r="AF44" s="13">
         <v>0.98216103235830077</v>
       </c>
-      <c r="AD37" s="13">
+      <c r="AG44" s="13">
         <v>1.0196913668606584</v>
       </c>
-      <c r="AE37" s="13">
+      <c r="AH44" s="13">
         <f t="shared" si="3"/>
         <v>0.11929859403692544</v>
       </c>
-      <c r="AF37" s="13">
+      <c r="AI44" s="13">
         <f t="shared" si="4"/>
         <v>-1.2226038687113105</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AJ44" s="13">
         <v>2010</v>
       </c>
-      <c r="AH37" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="14">
+      <c r="AK44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="14">
+      <c r="AN44" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="5">
+      <c r="AO44" s="5">
         <v>2015</v>
       </c>
-      <c r="AM37" s="24">
+      <c r="AP44" s="24">
         <v>1.0289100108345239</v>
       </c>
-      <c r="AN37" s="13">
+      <c r="AQ44" s="13">
         <v>0.68351956397618052</v>
       </c>
-      <c r="AO37" s="14">
+      <c r="AR44" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP37" s="14">
+      <c r="AS44" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
